--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_7_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_7_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>171247.583678621</v>
+        <v>160538.0716074442</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18061091.42663155</v>
+        <v>18134062.16392506</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14521294.29367236</v>
+        <v>14417150.54929111</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5092929.552617512</v>
+        <v>5134985.768620951</v>
       </c>
     </row>
     <row r="11">
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13.81368620719627</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>12.16709481129848</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>13.81368620719627</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>46.59249612745214</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>41.03867058905983</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>46.59249612745214</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>46.59249612745214</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>13.81368620719627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>12.16709481129848</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1976,22 +1976,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>13.81368620719627</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>46.59249612745214</v>
       </c>
       <c r="V18" t="n">
-        <v>13.81368620719627</v>
+        <v>41.03867058905983</v>
       </c>
       <c r="W18" t="n">
-        <v>13.81368620719627</v>
+        <v>46.59249612745214</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>46.59249612745214</v>
       </c>
     </row>
     <row r="19">
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>13.81368620719627</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>4.69686536185321</v>
+        <v>41.03867058905983</v>
       </c>
       <c r="F19" t="n">
-        <v>13.81368620719627</v>
+        <v>46.59249612745214</v>
       </c>
       <c r="G19" t="n">
-        <v>13.81368620719627</v>
+        <v>46.59249612745214</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>7.470229449445267</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>46.59249612745214</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13.81368620719627</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>41.03867058905983</v>
       </c>
       <c r="E20" t="n">
-        <v>13.81368620719627</v>
+        <v>46.59249612745214</v>
       </c>
       <c r="F20" t="n">
-        <v>12.16709481129848</v>
+        <v>46.59249612745214</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>46.59249612745214</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>13.81368620719627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>12.16709481129848</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>46.59249612745214</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>13.81368620719627</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>13.81368620719627</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>13.81368620719627</v>
+        <v>46.59249612745214</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>41.03867058905984</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>46.59249612745214</v>
       </c>
     </row>
     <row r="22">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>46.59249612745214</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>4.696865361853209</v>
+        <v>46.59249612745214</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>7.470229449445267</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>13.81368620719627</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>13.81368620719627</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>13.81368620719627</v>
+        <v>41.03867058905983</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>46.59249612745214</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>99.74821538277799</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>208.7597864958381</v>
@@ -2377,16 +2377,16 @@
         <v>252.9666552009576</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>73.96483024312776</v>
       </c>
       <c r="X23" t="n">
-        <v>46.32570998031706</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -2411,10 +2411,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
-        <v>117.3306764697963</v>
+        <v>53.7818539867386</v>
       </c>
       <c r="H24" t="n">
-        <v>72.65193214555642</v>
+        <v>72.65193214555643</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>41.64052685129111</v>
+        <v>105.1893493343483</v>
       </c>
       <c r="T24" t="n">
-        <v>169.052871606527</v>
+        <v>169.0528716065271</v>
       </c>
       <c r="U24" t="n">
         <v>207.8619498303119</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>83.66311423567937</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>165.2900340234834</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.5302492315022</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>93.22590247001375</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>178.4552330604436</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>227.8864495962592</v>
       </c>
       <c r="U25" t="n">
-        <v>130.6685344761374</v>
+        <v>282.5145049675327</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
@@ -2544,7 +2544,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>176.9808941029684</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>26.81548486949664</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>99.74821538277799</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>208.7597864958381</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>277.6895935801232</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2645,10 +2645,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
-        <v>59.63866557264269</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
-        <v>117.3306764697963</v>
+        <v>53.78185398673949</v>
       </c>
       <c r="H27" t="n">
         <v>72.65193214555642</v>
@@ -2727,7 +2727,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>165.2900340234834</v>
+        <v>26.26086466483426</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>65.04200850945782</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>178.4552330604436</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>227.8864495962592</v>
       </c>
       <c r="U28" t="n">
-        <v>130.6685344761374</v>
+        <v>282.5145049675327</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
@@ -2781,7 +2781,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>295.3210036604999</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>208.7597864958381</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>237.795275409587</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>117.3306764697963</v>
       </c>
       <c r="H30" t="n">
-        <v>72.65193214555642</v>
+        <v>9.103109662499595</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>105.1893493343483</v>
       </c>
       <c r="T30" t="n">
-        <v>105.5040491234702</v>
+        <v>169.052871606527</v>
       </c>
       <c r="U30" t="n">
         <v>207.8619498303119</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>118.3336650326579</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>99.64621605730098</v>
       </c>
       <c r="G31" t="n">
-        <v>165.2900340234834</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.5302492315022</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>93.22590247001374</v>
+        <v>93.22590247001372</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>65.04200850945782</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>178.4552330604436</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>227.8864495962592</v>
       </c>
       <c r="U31" t="n">
         <v>282.5145049675327</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -3031,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>328.0182269894373</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>267.5883954670121</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>291.5846240761357</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>26.81548486949664</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>252.9666552009576</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>117.3306764697963</v>
       </c>
       <c r="H33" t="n">
-        <v>9.103109662499595</v>
+        <v>72.65193214555642</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>105.1893493343483</v>
+        <v>41.64052685129156</v>
       </c>
       <c r="T33" t="n">
         <v>169.052871606527</v>
@@ -3207,7 +3207,7 @@
         <v>142.5302492315022</v>
       </c>
       <c r="I34" t="n">
-        <v>93.22590247001374</v>
+        <v>93.22590247001372</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>65.04200850945782</v>
       </c>
       <c r="S34" t="n">
-        <v>178.4552330604436</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>227.8864495962592</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5145049675327</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>145.8005744444233</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>102.0181938516916</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>181.7718716547772</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>265.2819394060821</v>
       </c>
       <c r="G35" t="n">
-        <v>406.1742895970049</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>291.5846240761357</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>26.81548486949666</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>99.74821538277799</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>252.9666552009576</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>41.64052685129111</v>
+        <v>105.1893493343483</v>
       </c>
       <c r="T36" t="n">
-        <v>169.052871606527</v>
+        <v>105.5040491234704</v>
       </c>
       <c r="U36" t="n">
         <v>207.8619498303119</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
@@ -3438,13 +3438,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>165.2900340234834</v>
+        <v>31.52658203226916</v>
       </c>
       <c r="H37" t="n">
-        <v>142.5302492315022</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>93.22590247001374</v>
+        <v>93.22590247001372</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>227.8864495962592</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5145049675327</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>145.8005744444228</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>8.441272254312054</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>162.6832212888652</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>26.81548486949664</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>99.74821538277799</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>208.7597864958381</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>252.9666552009576</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>41.64052685129156</v>
+        <v>41.64052685129111</v>
       </c>
       <c r="T39" t="n">
         <v>169.052871606527</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
@@ -3672,7 +3672,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.2900340234834</v>
@@ -3681,7 +3681,7 @@
         <v>142.5302492315022</v>
       </c>
       <c r="I40" t="n">
-        <v>93.22590247001374</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>178.4552330604436</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>227.8864495962592</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5145049675327</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>175.4094808227557</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>27.7747188901381</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>129.4765533187038</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
@@ -3748,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>25.8438287786328</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>406.1742895970049</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>26.81548486949664</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>208.7597864958381</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>252.9666552009576</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>117.3306764697963</v>
       </c>
       <c r="H42" t="n">
-        <v>72.65193214555642</v>
+        <v>9.10310966250003</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>41.64052685129111</v>
+        <v>105.1893493343483</v>
       </c>
       <c r="T42" t="n">
         <v>169.052871606527</v>
@@ -3903,22 +3903,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>121.4221233504898</v>
       </c>
       <c r="E43" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.2900340234834</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.5302492315022</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>93.22590247001372</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>65.04200850945782</v>
       </c>
       <c r="S43" t="n">
         <v>178.4552330604436</v>
@@ -3954,13 +3954,13 @@
         <v>227.8864495962592</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5145049675327</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>197.4289363291862</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>22.48228616374158</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>26.81548486949664</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>99.74821538277799</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>208.7597864958381</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>252.9666552009576</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>341.2249941752157</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>117.3306764697963</v>
       </c>
       <c r="H45" t="n">
-        <v>72.65193214555642</v>
+        <v>9.10310966250003</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>169.052871606527</v>
       </c>
       <c r="U45" t="n">
-        <v>144.313127347255</v>
+        <v>207.8619498303119</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>92.28728956236857</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
         <v>168.5030667546707</v>
@@ -4143,7 +4143,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
@@ -4152,10 +4152,10 @@
         <v>165.2900340234834</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.5302492315022</v>
       </c>
       <c r="I46" t="n">
-        <v>93.22590247001374</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>65.04200850945782</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>93.20223133401488</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>27.34830804657039</v>
+        <v>50.79052709166298</v>
       </c>
       <c r="C17" t="n">
-        <v>15.05831328768305</v>
+        <v>50.79052709166298</v>
       </c>
       <c r="D17" t="n">
-        <v>1.105094896575702</v>
+        <v>50.79052709166298</v>
       </c>
       <c r="E17" t="n">
-        <v>1.105094896575702</v>
+        <v>50.79052709166298</v>
       </c>
       <c r="F17" t="n">
-        <v>1.105094896575702</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="G17" t="n">
-        <v>1.105094896575702</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="H17" t="n">
-        <v>1.105094896575702</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="I17" t="n">
-        <v>1.105094896575702</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="J17" t="n">
-        <v>14.78064424170001</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="K17" t="n">
-        <v>28.45619358682431</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="L17" t="n">
-        <v>42.13174293194862</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="M17" t="n">
-        <v>55.25474482878508</v>
+        <v>20.35035591644689</v>
       </c>
       <c r="N17" t="n">
-        <v>55.25474482878508</v>
+        <v>47.99027101127572</v>
       </c>
       <c r="O17" t="n">
-        <v>55.25474482878508</v>
+        <v>94.11684217745334</v>
       </c>
       <c r="P17" t="n">
-        <v>55.25474482878508</v>
+        <v>140.2434133436309</v>
       </c>
       <c r="Q17" t="n">
-        <v>55.25474482878508</v>
+        <v>186.3699845098085</v>
       </c>
       <c r="R17" t="n">
-        <v>55.25474482878508</v>
+        <v>186.3699845098085</v>
       </c>
       <c r="S17" t="n">
-        <v>55.25474482878508</v>
+        <v>144.9167818945966</v>
       </c>
       <c r="T17" t="n">
-        <v>55.25474482878508</v>
+        <v>144.9167818945966</v>
       </c>
       <c r="U17" t="n">
-        <v>55.25474482878508</v>
+        <v>144.9167818945966</v>
       </c>
       <c r="V17" t="n">
-        <v>55.25474482878508</v>
+        <v>97.8536544931298</v>
       </c>
       <c r="W17" t="n">
-        <v>55.25474482878508</v>
+        <v>50.79052709166298</v>
       </c>
       <c r="X17" t="n">
-        <v>55.25474482878508</v>
+        <v>50.79052709166298</v>
       </c>
       <c r="Y17" t="n">
-        <v>41.30152643767774</v>
+        <v>50.79052709166298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>13.39508965546305</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="C18" t="n">
-        <v>1.105094896575702</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="D18" t="n">
-        <v>1.105094896575702</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="E18" t="n">
-        <v>1.105094896575702</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="F18" t="n">
-        <v>1.105094896575702</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="G18" t="n">
-        <v>1.105094896575702</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="H18" t="n">
-        <v>1.105094896575702</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="I18" t="n">
-        <v>1.105094896575702</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="J18" t="n">
-        <v>1.105094896575702</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="K18" t="n">
-        <v>1.105094896575702</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="L18" t="n">
-        <v>14.22809679341216</v>
+        <v>23.6349068112771</v>
       </c>
       <c r="M18" t="n">
-        <v>27.90364613853646</v>
+        <v>59.44799295710264</v>
       </c>
       <c r="N18" t="n">
-        <v>41.57919548366077</v>
+        <v>105.5745641232803</v>
       </c>
       <c r="O18" t="n">
-        <v>55.25474482878508</v>
+        <v>133.3284983040407</v>
       </c>
       <c r="P18" t="n">
-        <v>55.25474482878508</v>
+        <v>143.0369842560293</v>
       </c>
       <c r="Q18" t="n">
-        <v>55.25474482878508</v>
+        <v>178.6231984780233</v>
       </c>
       <c r="R18" t="n">
-        <v>55.25474482878508</v>
+        <v>186.3699845098085</v>
       </c>
       <c r="S18" t="n">
-        <v>55.25474482878508</v>
+        <v>186.3699845098085</v>
       </c>
       <c r="T18" t="n">
-        <v>41.30152643767774</v>
+        <v>186.3699845098085</v>
       </c>
       <c r="U18" t="n">
-        <v>41.30152643767774</v>
+        <v>139.3068571083417</v>
       </c>
       <c r="V18" t="n">
-        <v>27.34830804657039</v>
+        <v>97.8536544931298</v>
       </c>
       <c r="W18" t="n">
-        <v>13.39508965546305</v>
+        <v>50.79052709166298</v>
       </c>
       <c r="X18" t="n">
-        <v>13.39508965546305</v>
+        <v>50.79052709166298</v>
       </c>
       <c r="Y18" t="n">
-        <v>13.39508965546305</v>
+        <v>3.727399690196171</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>55.25474482878508</v>
+        <v>139.3068571083417</v>
       </c>
       <c r="C19" t="n">
-        <v>41.30152643767774</v>
+        <v>139.3068571083417</v>
       </c>
       <c r="D19" t="n">
-        <v>41.30152643767774</v>
+        <v>139.3068571083417</v>
       </c>
       <c r="E19" t="n">
-        <v>36.55721799136136</v>
+        <v>97.8536544931298</v>
       </c>
       <c r="F19" t="n">
-        <v>22.60399960025402</v>
+        <v>50.79052709166298</v>
       </c>
       <c r="G19" t="n">
-        <v>8.650781209146679</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="H19" t="n">
-        <v>8.650781209146679</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="I19" t="n">
-        <v>8.650781209146679</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="J19" t="n">
-        <v>1.105094896575702</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="K19" t="n">
-        <v>1.105094896575702</v>
+        <v>47.99027101127572</v>
       </c>
       <c r="L19" t="n">
-        <v>1.105094896575702</v>
+        <v>94.11684217745334</v>
       </c>
       <c r="M19" t="n">
-        <v>14.78064424170001</v>
+        <v>140.2434133436309</v>
       </c>
       <c r="N19" t="n">
-        <v>28.45619358682431</v>
+        <v>140.2434133436309</v>
       </c>
       <c r="O19" t="n">
-        <v>42.13174293194862</v>
+        <v>140.2434133436309</v>
       </c>
       <c r="P19" t="n">
-        <v>55.25474482878508</v>
+        <v>186.3699845098085</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.25474482878508</v>
+        <v>186.3699845098085</v>
       </c>
       <c r="R19" t="n">
-        <v>55.25474482878508</v>
+        <v>186.3699845098085</v>
       </c>
       <c r="S19" t="n">
-        <v>55.25474482878508</v>
+        <v>186.3699845098085</v>
       </c>
       <c r="T19" t="n">
-        <v>55.25474482878508</v>
+        <v>186.3699845098085</v>
       </c>
       <c r="U19" t="n">
-        <v>55.25474482878508</v>
+        <v>186.3699845098085</v>
       </c>
       <c r="V19" t="n">
-        <v>55.25474482878508</v>
+        <v>139.3068571083417</v>
       </c>
       <c r="W19" t="n">
-        <v>55.25474482878508</v>
+        <v>139.3068571083417</v>
       </c>
       <c r="X19" t="n">
-        <v>55.25474482878508</v>
+        <v>139.3068571083417</v>
       </c>
       <c r="Y19" t="n">
-        <v>55.25474482878508</v>
+        <v>139.3068571083417</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>27.34830804657039</v>
+        <v>139.3068571083417</v>
       </c>
       <c r="C20" t="n">
-        <v>27.34830804657039</v>
+        <v>139.3068571083417</v>
       </c>
       <c r="D20" t="n">
-        <v>27.34830804657039</v>
+        <v>97.8536544931298</v>
       </c>
       <c r="E20" t="n">
-        <v>13.39508965546305</v>
+        <v>50.79052709166298</v>
       </c>
       <c r="F20" t="n">
-        <v>1.105094896575702</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="G20" t="n">
-        <v>1.105094896575702</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="H20" t="n">
-        <v>1.105094896575702</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="I20" t="n">
-        <v>1.105094896575702</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="J20" t="n">
-        <v>1.105094896575702</v>
+        <v>49.85397085637378</v>
       </c>
       <c r="K20" t="n">
-        <v>1.105094896575702</v>
+        <v>49.85397085637378</v>
       </c>
       <c r="L20" t="n">
-        <v>1.105094896575702</v>
+        <v>49.85397085637378</v>
       </c>
       <c r="M20" t="n">
-        <v>14.78064424170001</v>
+        <v>95.98054202255139</v>
       </c>
       <c r="N20" t="n">
-        <v>28.45619358682431</v>
+        <v>130.1289123137364</v>
       </c>
       <c r="O20" t="n">
-        <v>42.13174293194862</v>
+        <v>140.2434133436309</v>
       </c>
       <c r="P20" t="n">
-        <v>55.25474482878508</v>
+        <v>140.2434133436309</v>
       </c>
       <c r="Q20" t="n">
-        <v>55.25474482878508</v>
+        <v>186.3699845098085</v>
       </c>
       <c r="R20" t="n">
-        <v>55.25474482878508</v>
+        <v>186.3699845098085</v>
       </c>
       <c r="S20" t="n">
-        <v>55.25474482878508</v>
+        <v>139.3068571083417</v>
       </c>
       <c r="T20" t="n">
-        <v>55.25474482878508</v>
+        <v>139.3068571083417</v>
       </c>
       <c r="U20" t="n">
-        <v>55.25474482878508</v>
+        <v>139.3068571083417</v>
       </c>
       <c r="V20" t="n">
-        <v>55.25474482878508</v>
+        <v>139.3068571083417</v>
       </c>
       <c r="W20" t="n">
-        <v>55.25474482878508</v>
+        <v>139.3068571083417</v>
       </c>
       <c r="X20" t="n">
-        <v>55.25474482878508</v>
+        <v>139.3068571083417</v>
       </c>
       <c r="Y20" t="n">
-        <v>41.30152643767774</v>
+        <v>139.3068571083417</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.105094896575702</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="C21" t="n">
-        <v>1.105094896575702</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="D21" t="n">
-        <v>1.105094896575702</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="E21" t="n">
-        <v>1.105094896575702</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="F21" t="n">
-        <v>1.105094896575702</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="G21" t="n">
-        <v>1.105094896575702</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="H21" t="n">
-        <v>1.105094896575702</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="I21" t="n">
-        <v>1.105094896575702</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="J21" t="n">
-        <v>14.78064424170001</v>
+        <v>39.31361391219026</v>
       </c>
       <c r="K21" t="n">
-        <v>14.78064424170001</v>
+        <v>39.31361391219026</v>
       </c>
       <c r="L21" t="n">
-        <v>14.78064424170001</v>
+        <v>59.22112103327119</v>
       </c>
       <c r="M21" t="n">
-        <v>28.45619358682431</v>
+        <v>95.03420717909673</v>
       </c>
       <c r="N21" t="n">
-        <v>42.13174293194862</v>
+        <v>141.1607783452743</v>
       </c>
       <c r="O21" t="n">
-        <v>55.25474482878508</v>
+        <v>168.9147125260348</v>
       </c>
       <c r="P21" t="n">
-        <v>55.25474482878508</v>
+        <v>178.6231984780233</v>
       </c>
       <c r="Q21" t="n">
-        <v>55.25474482878508</v>
+        <v>178.6231984780233</v>
       </c>
       <c r="R21" t="n">
-        <v>55.25474482878508</v>
+        <v>186.3699845098085</v>
       </c>
       <c r="S21" t="n">
-        <v>55.25474482878508</v>
+        <v>139.3068571083417</v>
       </c>
       <c r="T21" t="n">
-        <v>55.25474482878508</v>
+        <v>139.3068571083417</v>
       </c>
       <c r="U21" t="n">
-        <v>41.30152643767774</v>
+        <v>139.3068571083417</v>
       </c>
       <c r="V21" t="n">
-        <v>27.34830804657039</v>
+        <v>139.3068571083417</v>
       </c>
       <c r="W21" t="n">
-        <v>13.39508965546305</v>
+        <v>92.24372970687494</v>
       </c>
       <c r="X21" t="n">
-        <v>13.39508965546305</v>
+        <v>50.79052709166298</v>
       </c>
       <c r="Y21" t="n">
-        <v>13.39508965546305</v>
+        <v>3.727399690196171</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.39508965546305</v>
+        <v>97.8536544931298</v>
       </c>
       <c r="C22" t="n">
-        <v>13.39508965546305</v>
+        <v>50.79052709166298</v>
       </c>
       <c r="D22" t="n">
-        <v>13.39508965546305</v>
+        <v>50.79052709166298</v>
       </c>
       <c r="E22" t="n">
-        <v>13.39508965546305</v>
+        <v>50.79052709166298</v>
       </c>
       <c r="F22" t="n">
-        <v>8.650781209146679</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="G22" t="n">
-        <v>8.650781209146679</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="H22" t="n">
-        <v>8.650781209146679</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="I22" t="n">
-        <v>8.650781209146679</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="J22" t="n">
-        <v>1.105094896575702</v>
+        <v>3.727399690196171</v>
       </c>
       <c r="K22" t="n">
-        <v>14.78064424170001</v>
+        <v>47.99027101127572</v>
       </c>
       <c r="L22" t="n">
-        <v>28.45619358682431</v>
+        <v>94.11684217745334</v>
       </c>
       <c r="M22" t="n">
-        <v>42.13174293194862</v>
+        <v>94.11684217745334</v>
       </c>
       <c r="N22" t="n">
-        <v>55.25474482878508</v>
+        <v>140.2434133436309</v>
       </c>
       <c r="O22" t="n">
-        <v>55.25474482878508</v>
+        <v>140.2434133436309</v>
       </c>
       <c r="P22" t="n">
-        <v>55.25474482878508</v>
+        <v>186.3699845098085</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.25474482878508</v>
+        <v>186.3699845098085</v>
       </c>
       <c r="R22" t="n">
-        <v>55.25474482878508</v>
+        <v>186.3699845098085</v>
       </c>
       <c r="S22" t="n">
-        <v>55.25474482878508</v>
+        <v>186.3699845098085</v>
       </c>
       <c r="T22" t="n">
-        <v>55.25474482878508</v>
+        <v>186.3699845098085</v>
       </c>
       <c r="U22" t="n">
-        <v>41.30152643767774</v>
+        <v>186.3699845098085</v>
       </c>
       <c r="V22" t="n">
-        <v>27.34830804657039</v>
+        <v>186.3699845098085</v>
       </c>
       <c r="W22" t="n">
-        <v>13.39508965546305</v>
+        <v>144.9167818945966</v>
       </c>
       <c r="X22" t="n">
-        <v>13.39508965546305</v>
+        <v>97.8536544931298</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.39508965546305</v>
+        <v>97.8536544931298</v>
       </c>
     </row>
     <row r="23">
@@ -5977,25 +5977,25 @@
         <v>460.3511971697877</v>
       </c>
       <c r="F23" t="n">
-        <v>43.45675869976549</v>
+        <v>43.45675869976548</v>
       </c>
       <c r="G23" t="n">
-        <v>43.45675869976549</v>
+        <v>43.45675869976548</v>
       </c>
       <c r="H23" t="n">
-        <v>43.45675869976549</v>
+        <v>43.45675869976548</v>
       </c>
       <c r="I23" t="n">
-        <v>43.45675869976549</v>
+        <v>43.45675869976548</v>
       </c>
       <c r="J23" t="n">
-        <v>166.9995980355625</v>
+        <v>166.9995980355629</v>
       </c>
       <c r="K23" t="n">
-        <v>385.1383258824828</v>
+        <v>385.1383258824833</v>
       </c>
       <c r="L23" t="n">
-        <v>679.744852130033</v>
+        <v>679.7448521300332</v>
       </c>
       <c r="M23" t="n">
         <v>1028.136511519569</v>
@@ -6004,34 +6004,34 @@
         <v>1385.164487636535</v>
       </c>
       <c r="O23" t="n">
-        <v>1713.627961551485</v>
+        <v>1713.627961551484</v>
       </c>
       <c r="P23" t="n">
-        <v>1971.538286708529</v>
+        <v>1971.538286708528</v>
       </c>
       <c r="Q23" t="n">
-        <v>2133.905914674596</v>
+        <v>2133.905914674595</v>
       </c>
       <c r="R23" t="n">
-        <v>2172.837934988275</v>
+        <v>2172.837934988274</v>
       </c>
       <c r="S23" t="n">
-        <v>2072.082161874358</v>
+        <v>2172.837934988274</v>
       </c>
       <c r="T23" t="n">
-        <v>1861.21369066644</v>
+        <v>1961.969463780357</v>
       </c>
       <c r="U23" t="n">
-        <v>1605.691816726079</v>
+        <v>1706.447589839995</v>
       </c>
       <c r="V23" t="n">
-        <v>1263.585007429597</v>
+        <v>1706.447589839995</v>
       </c>
       <c r="W23" t="n">
-        <v>892.5859723978847</v>
+        <v>1631.735640099462</v>
       </c>
       <c r="X23" t="n">
-        <v>845.79232595312</v>
+        <v>1242.283035032519</v>
       </c>
       <c r="Y23" t="n">
         <v>845.79232595312</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>776.9798783881661</v>
+        <v>712.7891486072997</v>
       </c>
       <c r="C24" t="n">
-        <v>626.3256479482583</v>
+        <v>562.1349181673919</v>
       </c>
       <c r="D24" t="n">
-        <v>496.2366805697386</v>
+        <v>432.0459507888722</v>
       </c>
       <c r="E24" t="n">
-        <v>359.7901896806263</v>
+        <v>295.5994598997599</v>
       </c>
       <c r="F24" t="n">
-        <v>235.3583835637581</v>
+        <v>171.1676537828918</v>
       </c>
       <c r="G24" t="n">
         <v>116.8425487457821</v>
       </c>
       <c r="H24" t="n">
-        <v>43.45675869976549</v>
+        <v>43.45675869976548</v>
       </c>
       <c r="I24" t="n">
-        <v>47.15351322919122</v>
+        <v>43.45675869976548</v>
       </c>
       <c r="J24" t="n">
-        <v>303.2381764420956</v>
+        <v>104.8064269329424</v>
       </c>
       <c r="K24" t="n">
-        <v>458.895167155183</v>
+        <v>260.4634176460297</v>
       </c>
       <c r="L24" t="n">
-        <v>698.3048521855344</v>
+        <v>499.8731026763809</v>
       </c>
       <c r="M24" t="n">
-        <v>990.2666267026063</v>
+        <v>791.8348771934527</v>
       </c>
       <c r="N24" t="n">
-        <v>1299.321379827007</v>
+        <v>1100.889630317853</v>
       </c>
       <c r="O24" t="n">
-        <v>1567.603233309741</v>
+        <v>1638.667019227451</v>
       </c>
       <c r="P24" t="n">
-        <v>1770.356579817508</v>
+        <v>1841.420365735218</v>
       </c>
       <c r="Q24" t="n">
-        <v>2172.627967404173</v>
+        <v>2102.324300547568</v>
       </c>
       <c r="R24" t="n">
-        <v>2172.837934988275</v>
+        <v>2172.837934988274</v>
       </c>
       <c r="S24" t="n">
-        <v>2130.776796754647</v>
+        <v>2066.586066973781</v>
       </c>
       <c r="T24" t="n">
-        <v>1960.016320384418</v>
+        <v>1895.825590603552</v>
       </c>
       <c r="U24" t="n">
-        <v>1750.054754899254</v>
+        <v>1685.864025118388</v>
       </c>
       <c r="V24" t="n">
-        <v>1527.514753270322</v>
+        <v>1463.324023489455</v>
       </c>
       <c r="W24" t="n">
-        <v>1297.397507403608</v>
+        <v>1233.206777622742</v>
       </c>
       <c r="X24" t="n">
-        <v>1108.09042975362</v>
+        <v>1043.899699972754</v>
       </c>
       <c r="Y24" t="n">
-        <v>928.7762128291274</v>
+        <v>864.585483048261</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.1393669858369</v>
+        <v>609.1253383920315</v>
       </c>
       <c r="C25" t="n">
-        <v>678.9342490518261</v>
+        <v>438.9202204580207</v>
       </c>
       <c r="D25" t="n">
-        <v>523.3011359543409</v>
+        <v>438.9202204580207</v>
       </c>
       <c r="E25" t="n">
-        <v>367.7423238135435</v>
+        <v>438.9202204580207</v>
       </c>
       <c r="F25" t="n">
-        <v>210.4163890265164</v>
+        <v>281.5942856709937</v>
       </c>
       <c r="G25" t="n">
-        <v>43.45675869976549</v>
+        <v>281.5942856709937</v>
       </c>
       <c r="H25" t="n">
-        <v>43.45675869976549</v>
+        <v>137.6243369523046</v>
       </c>
       <c r="I25" t="n">
-        <v>43.45675869976549</v>
+        <v>43.45675869976548</v>
       </c>
       <c r="J25" t="n">
-        <v>103.3775994115472</v>
+        <v>103.3775994115471</v>
       </c>
       <c r="K25" t="n">
-        <v>332.6083939857839</v>
+        <v>332.6083939857838</v>
       </c>
       <c r="L25" t="n">
-        <v>685.3518517120938</v>
+        <v>685.3518517120935</v>
       </c>
       <c r="M25" t="n">
         <v>1070.51236408673</v>
       </c>
       <c r="N25" t="n">
-        <v>1447.84227339685</v>
+        <v>1447.842273396849</v>
       </c>
       <c r="O25" t="n">
-        <v>1789.867007172741</v>
+        <v>1789.86700717274</v>
       </c>
       <c r="P25" t="n">
-        <v>2063.182382971931</v>
+        <v>2063.18238297193</v>
       </c>
       <c r="Q25" t="n">
-        <v>2172.837934988275</v>
+        <v>2172.837934988274</v>
       </c>
       <c r="R25" t="n">
-        <v>2172.837934988275</v>
+        <v>2172.837934988274</v>
       </c>
       <c r="S25" t="n">
-        <v>2172.837934988275</v>
+        <v>1992.580123816109</v>
       </c>
       <c r="T25" t="n">
-        <v>2172.837934988275</v>
+        <v>1762.391790890594</v>
       </c>
       <c r="U25" t="n">
-        <v>2040.84951632551</v>
+        <v>1477.023604054702</v>
       </c>
       <c r="V25" t="n">
-        <v>1774.870171146334</v>
+        <v>1211.044258875527</v>
       </c>
       <c r="W25" t="n">
-        <v>1491.539769077512</v>
+        <v>927.7138568067044</v>
       </c>
       <c r="X25" t="n">
-        <v>1257.459446860495</v>
+        <v>693.6335345896874</v>
       </c>
       <c r="Y25" t="n">
-        <v>1034.347385677138</v>
+        <v>693.6335345896874</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>615.4008400988232</v>
+        <v>849.159737333194</v>
       </c>
       <c r="C26" t="n">
-        <v>222.2253386017538</v>
+        <v>455.9842358361246</v>
       </c>
       <c r="D26" t="n">
-        <v>43.45675869976549</v>
+        <v>70.54310705279241</v>
       </c>
       <c r="E26" t="n">
-        <v>43.45675869976549</v>
+        <v>70.54310705279241</v>
       </c>
       <c r="F26" t="n">
-        <v>43.45675869976549</v>
+        <v>70.54310705279241</v>
       </c>
       <c r="G26" t="n">
-        <v>43.45675869976549</v>
+        <v>70.54310705279241</v>
       </c>
       <c r="H26" t="n">
-        <v>43.45675869976549</v>
+        <v>70.54310705279241</v>
       </c>
       <c r="I26" t="n">
         <v>43.45675869976549</v>
@@ -6238,40 +6238,40 @@
         <v>1028.136511519569</v>
       </c>
       <c r="N26" t="n">
-        <v>1385.164487636535</v>
+        <v>1385.164487636534</v>
       </c>
       <c r="O26" t="n">
         <v>1713.627961551485</v>
       </c>
       <c r="P26" t="n">
-        <v>1971.53828670853</v>
+        <v>1971.538286708529</v>
       </c>
       <c r="Q26" t="n">
-        <v>2133.905914674597</v>
+        <v>2133.905914674596</v>
       </c>
       <c r="R26" t="n">
         <v>2172.837934988275</v>
       </c>
       <c r="S26" t="n">
-        <v>2172.837934988275</v>
+        <v>2072.082161874358</v>
       </c>
       <c r="T26" t="n">
-        <v>2172.837934988275</v>
+        <v>1861.21369066644</v>
       </c>
       <c r="U26" t="n">
-        <v>2172.837934988275</v>
+        <v>1861.21369066644</v>
       </c>
       <c r="V26" t="n">
-        <v>2172.837934988275</v>
+        <v>1519.106881369959</v>
       </c>
       <c r="W26" t="n">
-        <v>1801.838899956562</v>
+        <v>1238.612342400137</v>
       </c>
       <c r="X26" t="n">
-        <v>1412.386294889619</v>
+        <v>849.159737333194</v>
       </c>
       <c r="Y26" t="n">
-        <v>1015.89558581022</v>
+        <v>849.159737333194</v>
       </c>
     </row>
     <row r="27">
@@ -6293,7 +6293,7 @@
         <v>295.5994598997609</v>
       </c>
       <c r="F27" t="n">
-        <v>235.3583835637581</v>
+        <v>171.1676537828927</v>
       </c>
       <c r="G27" t="n">
         <v>116.8425487457821</v>
@@ -6302,31 +6302,31 @@
         <v>43.45675869976549</v>
       </c>
       <c r="I27" t="n">
-        <v>47.15351322919123</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="J27" t="n">
-        <v>303.2381764420956</v>
+        <v>299.5414219126699</v>
       </c>
       <c r="K27" t="n">
-        <v>458.8951671551831</v>
+        <v>455.1984126257573</v>
       </c>
       <c r="L27" t="n">
-        <v>698.3048521855346</v>
+        <v>694.6080976561088</v>
       </c>
       <c r="M27" t="n">
-        <v>990.2666267026067</v>
+        <v>986.5698721731808</v>
       </c>
       <c r="N27" t="n">
-        <v>1299.321379827007</v>
+        <v>1295.624625297581</v>
       </c>
       <c r="O27" t="n">
-        <v>1567.603233309741</v>
+        <v>1563.906478780315</v>
       </c>
       <c r="P27" t="n">
-        <v>1770.356579817509</v>
+        <v>1766.659825288083</v>
       </c>
       <c r="Q27" t="n">
-        <v>2102.324300547569</v>
+        <v>2172.627967404173</v>
       </c>
       <c r="R27" t="n">
         <v>2172.837934988275</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.1393669858369</v>
+        <v>708.7058625831611</v>
       </c>
       <c r="C28" t="n">
-        <v>678.9342490518261</v>
+        <v>538.5007446491503</v>
       </c>
       <c r="D28" t="n">
-        <v>523.3011359543409</v>
+        <v>382.8676315516651</v>
       </c>
       <c r="E28" t="n">
-        <v>367.7423238135435</v>
+        <v>227.3088194108676</v>
       </c>
       <c r="F28" t="n">
-        <v>210.4163890265164</v>
+        <v>69.9828846238405</v>
       </c>
       <c r="G28" t="n">
         <v>43.45675869976549</v>
@@ -6387,10 +6387,10 @@
         <v>103.3775994115472</v>
       </c>
       <c r="K28" t="n">
-        <v>332.608393985784</v>
+        <v>332.6083939857839</v>
       </c>
       <c r="L28" t="n">
-        <v>685.3518517120939</v>
+        <v>685.3518517120938</v>
       </c>
       <c r="M28" t="n">
         <v>1070.51236408673</v>
@@ -6408,28 +6408,28 @@
         <v>2172.837934988275</v>
       </c>
       <c r="R28" t="n">
-        <v>2172.837934988275</v>
+        <v>2107.138936493873</v>
       </c>
       <c r="S28" t="n">
-        <v>2172.837934988275</v>
+        <v>1926.881125321708</v>
       </c>
       <c r="T28" t="n">
-        <v>2172.837934988275</v>
+        <v>1696.692792396193</v>
       </c>
       <c r="U28" t="n">
-        <v>2040.84951632551</v>
+        <v>1411.324605560302</v>
       </c>
       <c r="V28" t="n">
-        <v>1774.870171146334</v>
+        <v>1411.324605560302</v>
       </c>
       <c r="W28" t="n">
-        <v>1491.539769077512</v>
+        <v>1127.994203491479</v>
       </c>
       <c r="X28" t="n">
-        <v>1257.459446860495</v>
+        <v>893.9138812744624</v>
       </c>
       <c r="Y28" t="n">
-        <v>1034.347385677138</v>
+        <v>893.9138812744624</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>758.6552412713028</v>
+        <v>853.5266986668571</v>
       </c>
       <c r="C29" t="n">
-        <v>758.6552412713028</v>
+        <v>460.3511971697877</v>
       </c>
       <c r="D29" t="n">
-        <v>758.6552412713028</v>
+        <v>460.3511971697877</v>
       </c>
       <c r="E29" t="n">
-        <v>758.6552412713028</v>
+        <v>460.3511971697877</v>
       </c>
       <c r="F29" t="n">
-        <v>341.7608028012805</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="G29" t="n">
         <v>43.45675869976549</v>
@@ -6496,19 +6496,19 @@
         <v>1861.21369066644</v>
       </c>
       <c r="U29" t="n">
-        <v>1861.21369066644</v>
+        <v>1621.016442777968</v>
       </c>
       <c r="V29" t="n">
-        <v>1519.106881369959</v>
+        <v>1621.016442777968</v>
       </c>
       <c r="W29" t="n">
-        <v>1148.107846338246</v>
+        <v>1250.017407746256</v>
       </c>
       <c r="X29" t="n">
-        <v>758.6552412713028</v>
+        <v>1250.017407746256</v>
       </c>
       <c r="Y29" t="n">
-        <v>758.6552412713028</v>
+        <v>853.5266986668571</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>776.9798783881661</v>
+        <v>712.7891486073006</v>
       </c>
       <c r="C30" t="n">
-        <v>626.3256479482583</v>
+        <v>562.1349181673928</v>
       </c>
       <c r="D30" t="n">
-        <v>496.2366805697386</v>
+        <v>432.0459507888731</v>
       </c>
       <c r="E30" t="n">
-        <v>359.7901896806263</v>
+        <v>295.5994598997609</v>
       </c>
       <c r="F30" t="n">
-        <v>235.3583835637581</v>
+        <v>171.1676537828927</v>
       </c>
       <c r="G30" t="n">
-        <v>116.8425487457821</v>
+        <v>52.6518189649166</v>
       </c>
       <c r="H30" t="n">
         <v>43.45675869976549</v>
       </c>
       <c r="I30" t="n">
-        <v>47.15351322919122</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="J30" t="n">
-        <v>108.5031814623682</v>
+        <v>104.8064269329425</v>
       </c>
       <c r="K30" t="n">
-        <v>264.1601721754556</v>
+        <v>260.4634176460299</v>
       </c>
       <c r="L30" t="n">
-        <v>503.569857205807</v>
+        <v>499.8731026763814</v>
       </c>
       <c r="M30" t="n">
-        <v>1041.347246115405</v>
+        <v>791.8348771934534</v>
       </c>
       <c r="N30" t="n">
-        <v>1579.124635025003</v>
+        <v>1100.889630317854</v>
       </c>
       <c r="O30" t="n">
-        <v>1847.406488507737</v>
+        <v>1531.76281346207</v>
       </c>
       <c r="P30" t="n">
-        <v>2050.159835015504</v>
+        <v>2069.540202371667</v>
       </c>
       <c r="Q30" t="n">
         <v>2172.627967404173</v>
@@ -6572,22 +6572,22 @@
         <v>2066.586066973782</v>
       </c>
       <c r="T30" t="n">
-        <v>1960.016320384418</v>
+        <v>1895.825590603552</v>
       </c>
       <c r="U30" t="n">
-        <v>1750.054754899254</v>
+        <v>1685.864025118389</v>
       </c>
       <c r="V30" t="n">
-        <v>1527.514753270322</v>
+        <v>1463.324023489456</v>
       </c>
       <c r="W30" t="n">
-        <v>1297.397507403608</v>
+        <v>1233.206777622743</v>
       </c>
       <c r="X30" t="n">
-        <v>1108.09042975362</v>
+        <v>1043.899699972755</v>
       </c>
       <c r="Y30" t="n">
-        <v>928.7762128291274</v>
+        <v>864.5854830482619</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>880.9676175040115</v>
+        <v>719.6741236168214</v>
       </c>
       <c r="C31" t="n">
-        <v>880.9676175040115</v>
+        <v>549.4690056828106</v>
       </c>
       <c r="D31" t="n">
-        <v>761.4386629255691</v>
+        <v>393.8358925853253</v>
       </c>
       <c r="E31" t="n">
-        <v>605.8798507847716</v>
+        <v>238.2770804445278</v>
       </c>
       <c r="F31" t="n">
-        <v>448.5539159977446</v>
+        <v>137.6243369523046</v>
       </c>
       <c r="G31" t="n">
-        <v>281.5942856709937</v>
+        <v>137.6243369523046</v>
       </c>
       <c r="H31" t="n">
         <v>137.6243369523046</v>
@@ -6645,28 +6645,28 @@
         <v>2172.837934988275</v>
       </c>
       <c r="R31" t="n">
-        <v>2172.837934988275</v>
+        <v>2107.138936493873</v>
       </c>
       <c r="S31" t="n">
-        <v>2172.837934988275</v>
+        <v>1926.881125321708</v>
       </c>
       <c r="T31" t="n">
-        <v>2172.837934988275</v>
+        <v>1696.692792396193</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.469748152383</v>
+        <v>1411.324605560302</v>
       </c>
       <c r="V31" t="n">
-        <v>1621.490402973207</v>
+        <v>1411.324605560302</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.160000904385</v>
+        <v>1127.994203491479</v>
       </c>
       <c r="X31" t="n">
-        <v>1104.079678687368</v>
+        <v>1127.994203491479</v>
       </c>
       <c r="Y31" t="n">
-        <v>880.9676175040115</v>
+        <v>904.8821423081226</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1386.894620841933</v>
+        <v>1204.21021671972</v>
       </c>
       <c r="C32" t="n">
-        <v>993.7191193448632</v>
+        <v>872.8786743061469</v>
       </c>
       <c r="D32" t="n">
-        <v>608.2779905615309</v>
+        <v>487.4375455228147</v>
       </c>
       <c r="E32" t="n">
-        <v>337.9866820089935</v>
+        <v>487.4375455228147</v>
       </c>
       <c r="F32" t="n">
-        <v>337.9866820089935</v>
+        <v>70.54310705279242</v>
       </c>
       <c r="G32" t="n">
-        <v>337.9866820089935</v>
+        <v>70.54310705279242</v>
       </c>
       <c r="H32" t="n">
-        <v>43.45675869976549</v>
+        <v>70.54310705279242</v>
       </c>
       <c r="I32" t="n">
-        <v>43.45675869976549</v>
+        <v>43.45675869976551</v>
       </c>
       <c r="J32" t="n">
-        <v>166.9995980355625</v>
+        <v>166.9995980355626</v>
       </c>
       <c r="K32" t="n">
-        <v>385.1383258824828</v>
+        <v>385.1383258824824</v>
       </c>
       <c r="L32" t="n">
-        <v>679.744852130033</v>
+        <v>679.7448521300328</v>
       </c>
       <c r="M32" t="n">
         <v>1028.136511519569</v>
@@ -6733,19 +6733,19 @@
         <v>2172.837934988275</v>
       </c>
       <c r="U32" t="n">
-        <v>2172.837934988275</v>
+        <v>1917.316061047914</v>
       </c>
       <c r="V32" t="n">
-        <v>2172.837934988275</v>
+        <v>1575.209251751432</v>
       </c>
       <c r="W32" t="n">
-        <v>2172.837934988275</v>
+        <v>1204.21021671972</v>
       </c>
       <c r="X32" t="n">
-        <v>1783.385329921332</v>
+        <v>1204.21021671972</v>
       </c>
       <c r="Y32" t="n">
-        <v>1386.894620841933</v>
+        <v>1204.21021671972</v>
       </c>
     </row>
     <row r="33">
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>712.7891486073006</v>
+        <v>776.9798783881662</v>
       </c>
       <c r="C33" t="n">
-        <v>562.1349181673928</v>
+        <v>626.3256479482584</v>
       </c>
       <c r="D33" t="n">
-        <v>432.0459507888731</v>
+        <v>496.2366805697387</v>
       </c>
       <c r="E33" t="n">
-        <v>295.5994598997609</v>
+        <v>359.7901896806264</v>
       </c>
       <c r="F33" t="n">
-        <v>171.1676537828927</v>
+        <v>235.3583835637582</v>
       </c>
       <c r="G33" t="n">
-        <v>52.6518189649166</v>
+        <v>116.8425487457821</v>
       </c>
       <c r="H33" t="n">
-        <v>43.45675869976549</v>
+        <v>43.45675869976551</v>
       </c>
       <c r="I33" t="n">
-        <v>47.15351322919122</v>
+        <v>43.45675869976551</v>
       </c>
       <c r="J33" t="n">
-        <v>197.0940897378206</v>
+        <v>104.8064269329425</v>
       </c>
       <c r="K33" t="n">
-        <v>352.751080450908</v>
+        <v>260.4634176460299</v>
       </c>
       <c r="L33" t="n">
-        <v>592.1607654812594</v>
+        <v>499.8731026763814</v>
       </c>
       <c r="M33" t="n">
-        <v>884.1225399983314</v>
+        <v>791.8348771934534</v>
       </c>
       <c r="N33" t="n">
-        <v>1193.177293122732</v>
+        <v>1100.889630317854</v>
       </c>
       <c r="O33" t="n">
-        <v>1461.459146605466</v>
+        <v>1638.667019227452</v>
       </c>
       <c r="P33" t="n">
         <v>1999.236535515064</v>
@@ -6806,25 +6806,25 @@
         <v>2172.837934988275</v>
       </c>
       <c r="S33" t="n">
-        <v>2066.586066973782</v>
+        <v>2130.776796754647</v>
       </c>
       <c r="T33" t="n">
-        <v>1895.825590603552</v>
+        <v>1960.016320384418</v>
       </c>
       <c r="U33" t="n">
-        <v>1685.864025118389</v>
+        <v>1750.054754899255</v>
       </c>
       <c r="V33" t="n">
-        <v>1463.324023489456</v>
+        <v>1527.514753270322</v>
       </c>
       <c r="W33" t="n">
-        <v>1233.206777622743</v>
+        <v>1297.397507403609</v>
       </c>
       <c r="X33" t="n">
-        <v>1043.899699972755</v>
+        <v>1108.09042975362</v>
       </c>
       <c r="Y33" t="n">
-        <v>864.5854830482619</v>
+        <v>928.7762128291275</v>
       </c>
     </row>
     <row r="34">
@@ -6855,7 +6855,7 @@
         <v>137.6243369523046</v>
       </c>
       <c r="I34" t="n">
-        <v>43.45675869976549</v>
+        <v>43.45675869976551</v>
       </c>
       <c r="J34" t="n">
         <v>103.3775994115472</v>
@@ -6864,7 +6864,7 @@
         <v>332.6083939857839</v>
       </c>
       <c r="L34" t="n">
-        <v>685.3518517120938</v>
+        <v>685.351851712094</v>
       </c>
       <c r="M34" t="n">
         <v>1070.51236408673</v>
@@ -6882,25 +6882,25 @@
         <v>2172.837934988275</v>
       </c>
       <c r="R34" t="n">
-        <v>2107.138936493873</v>
+        <v>2107.138936493874</v>
       </c>
       <c r="S34" t="n">
-        <v>1926.881125321708</v>
+        <v>2107.138936493874</v>
       </c>
       <c r="T34" t="n">
-        <v>1926.881125321708</v>
+        <v>1876.950603568359</v>
       </c>
       <c r="U34" t="n">
-        <v>1641.512938485816</v>
+        <v>1876.950603568359</v>
       </c>
       <c r="V34" t="n">
-        <v>1375.533593306641</v>
+        <v>1876.950603568359</v>
       </c>
       <c r="W34" t="n">
-        <v>1375.533593306641</v>
+        <v>1729.67729604874</v>
       </c>
       <c r="X34" t="n">
-        <v>1375.533593306641</v>
+        <v>1495.596973831723</v>
       </c>
       <c r="Y34" t="n">
         <v>1272.484912648366</v>
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1375.852480197479</v>
+        <v>714.0018385388595</v>
       </c>
       <c r="C35" t="n">
-        <v>1375.852480197479</v>
+        <v>714.0018385388595</v>
       </c>
       <c r="D35" t="n">
-        <v>1375.852480197479</v>
+        <v>714.0018385388595</v>
       </c>
       <c r="E35" t="n">
-        <v>1192.244529031037</v>
+        <v>311.418313655404</v>
       </c>
       <c r="F35" t="n">
-        <v>775.3500905610153</v>
+        <v>43.45675869976551</v>
       </c>
       <c r="G35" t="n">
-        <v>365.0730303620204</v>
+        <v>43.45675869976551</v>
       </c>
       <c r="H35" t="n">
-        <v>70.54310705279242</v>
+        <v>43.45675869976551</v>
       </c>
       <c r="I35" t="n">
-        <v>43.45675869976549</v>
+        <v>43.45675869976551</v>
       </c>
       <c r="J35" t="n">
-        <v>166.9995980355625</v>
+        <v>166.9995980355621</v>
       </c>
       <c r="K35" t="n">
-        <v>385.1383258824827</v>
+        <v>385.1383258824824</v>
       </c>
       <c r="L35" t="n">
         <v>679.7448521300328</v>
@@ -6964,25 +6964,25 @@
         <v>2172.837934988275</v>
       </c>
       <c r="S35" t="n">
-        <v>2172.837934988275</v>
+        <v>2072.082161874358</v>
       </c>
       <c r="T35" t="n">
-        <v>2172.837934988275</v>
+        <v>2072.082161874358</v>
       </c>
       <c r="U35" t="n">
-        <v>2172.837934988275</v>
+        <v>1816.560287933997</v>
       </c>
       <c r="V35" t="n">
-        <v>2172.837934988275</v>
+        <v>1474.453478637515</v>
       </c>
       <c r="W35" t="n">
-        <v>2172.837934988275</v>
+        <v>1103.454443605803</v>
       </c>
       <c r="X35" t="n">
-        <v>2172.837934988275</v>
+        <v>714.0018385388595</v>
       </c>
       <c r="Y35" t="n">
-        <v>1776.347225908876</v>
+        <v>714.0018385388595</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>776.9798783881661</v>
+        <v>776.9798783881662</v>
       </c>
       <c r="C36" t="n">
-        <v>626.3256479482583</v>
+        <v>626.3256479482584</v>
       </c>
       <c r="D36" t="n">
-        <v>496.2366805697386</v>
+        <v>496.2366805697387</v>
       </c>
       <c r="E36" t="n">
-        <v>359.7901896806263</v>
+        <v>359.7901896806264</v>
       </c>
       <c r="F36" t="n">
-        <v>235.3583835637581</v>
+        <v>235.3583835637582</v>
       </c>
       <c r="G36" t="n">
         <v>116.8425487457821</v>
       </c>
       <c r="H36" t="n">
-        <v>43.45675869976549</v>
+        <v>43.45675869976551</v>
       </c>
       <c r="I36" t="n">
-        <v>47.15351322919122</v>
+        <v>47.15351322919124</v>
       </c>
       <c r="J36" t="n">
         <v>303.2381764420956</v>
       </c>
       <c r="K36" t="n">
-        <v>458.895167155183</v>
+        <v>758.0787897093426</v>
       </c>
       <c r="L36" t="n">
-        <v>698.3048521855344</v>
+        <v>997.4884747396941</v>
       </c>
       <c r="M36" t="n">
-        <v>990.2666267026063</v>
+        <v>1289.450249256766</v>
       </c>
       <c r="N36" t="n">
-        <v>1299.321379827007</v>
+        <v>1598.505002381167</v>
       </c>
       <c r="O36" t="n">
-        <v>1567.603233309741</v>
+        <v>1866.786855863901</v>
       </c>
       <c r="P36" t="n">
-        <v>1770.356579817508</v>
+        <v>2069.540202371668</v>
       </c>
       <c r="Q36" t="n">
         <v>2172.627967404173</v>
@@ -7043,25 +7043,25 @@
         <v>2172.837934988275</v>
       </c>
       <c r="S36" t="n">
-        <v>2130.776796754647</v>
+        <v>2066.586066973782</v>
       </c>
       <c r="T36" t="n">
         <v>1960.016320384418</v>
       </c>
       <c r="U36" t="n">
-        <v>1750.054754899254</v>
+        <v>1750.054754899255</v>
       </c>
       <c r="V36" t="n">
         <v>1527.514753270322</v>
       </c>
       <c r="W36" t="n">
-        <v>1297.397507403608</v>
+        <v>1297.397507403609</v>
       </c>
       <c r="X36" t="n">
         <v>1108.09042975362</v>
       </c>
       <c r="Y36" t="n">
-        <v>928.7762128291274</v>
+        <v>928.7762128291275</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1087.276893957065</v>
+        <v>808.1923472674526</v>
       </c>
       <c r="C37" t="n">
-        <v>917.0717760230543</v>
+        <v>637.9872293334419</v>
       </c>
       <c r="D37" t="n">
-        <v>761.4386629255691</v>
+        <v>482.3541162359566</v>
       </c>
       <c r="E37" t="n">
-        <v>605.8798507847716</v>
+        <v>326.7953040951591</v>
       </c>
       <c r="F37" t="n">
-        <v>448.5539159977446</v>
+        <v>169.4693693081321</v>
       </c>
       <c r="G37" t="n">
-        <v>281.5942856709937</v>
+        <v>137.6243369523046</v>
       </c>
       <c r="H37" t="n">
         <v>137.6243369523046</v>
       </c>
       <c r="I37" t="n">
-        <v>43.45675869976549</v>
+        <v>43.45675869976551</v>
       </c>
       <c r="J37" t="n">
         <v>103.3775994115472</v>
@@ -7101,7 +7101,7 @@
         <v>332.6083939857839</v>
       </c>
       <c r="L37" t="n">
-        <v>685.3518517120938</v>
+        <v>685.351851712094</v>
       </c>
       <c r="M37" t="n">
         <v>1070.51236408673</v>
@@ -7119,28 +7119,28 @@
         <v>2172.837934988275</v>
       </c>
       <c r="R37" t="n">
-        <v>2107.138936493873</v>
+        <v>2107.138936493874</v>
       </c>
       <c r="S37" t="n">
-        <v>2107.138936493873</v>
+        <v>2107.138936493874</v>
       </c>
       <c r="T37" t="n">
         <v>1876.950603568359</v>
       </c>
       <c r="U37" t="n">
-        <v>1876.950603568359</v>
+        <v>1591.582416732468</v>
       </c>
       <c r="V37" t="n">
-        <v>1876.950603568359</v>
+        <v>1325.603071553292</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.67729604874</v>
+        <v>1042.27266948447</v>
       </c>
       <c r="X37" t="n">
-        <v>1495.596973831723</v>
+        <v>808.1923472674526</v>
       </c>
       <c r="Y37" t="n">
-        <v>1272.484912648366</v>
+        <v>808.1923472674526</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>986.3998751305362</v>
+        <v>867.0942983501984</v>
       </c>
       <c r="C38" t="n">
-        <v>593.2243736334667</v>
+        <v>858.5677607195802</v>
       </c>
       <c r="D38" t="n">
-        <v>207.7832448501345</v>
+        <v>473.1266319362479</v>
       </c>
       <c r="E38" t="n">
-        <v>43.45675869976551</v>
+        <v>70.54310705279241</v>
       </c>
       <c r="F38" t="n">
-        <v>43.45675869976551</v>
+        <v>70.54310705279241</v>
       </c>
       <c r="G38" t="n">
-        <v>43.45675869976551</v>
+        <v>70.54310705279241</v>
       </c>
       <c r="H38" t="n">
-        <v>43.45675869976551</v>
+        <v>70.54310705279241</v>
       </c>
       <c r="I38" t="n">
-        <v>43.45675869976551</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="J38" t="n">
-        <v>166.9995980355627</v>
+        <v>166.9995980355626</v>
       </c>
       <c r="K38" t="n">
-        <v>385.1383258824833</v>
+        <v>385.138325882482</v>
       </c>
       <c r="L38" t="n">
-        <v>679.7448521300336</v>
+        <v>679.7448521300323</v>
       </c>
       <c r="M38" t="n">
-        <v>1028.136511519569</v>
+        <v>1028.136511519568</v>
       </c>
       <c r="N38" t="n">
-        <v>1385.164487636535</v>
+        <v>1385.164487636534</v>
       </c>
       <c r="O38" t="n">
         <v>1713.627961551485</v>
@@ -7201,25 +7201,25 @@
         <v>2172.837934988275</v>
       </c>
       <c r="S38" t="n">
-        <v>2172.837934988275</v>
+        <v>2072.082161874358</v>
       </c>
       <c r="T38" t="n">
-        <v>2172.837934988275</v>
+        <v>1861.21369066644</v>
       </c>
       <c r="U38" t="n">
-        <v>2172.837934988275</v>
+        <v>1605.691816726079</v>
       </c>
       <c r="V38" t="n">
-        <v>2172.837934988275</v>
+        <v>1263.585007429597</v>
       </c>
       <c r="W38" t="n">
-        <v>2172.837934988275</v>
+        <v>1263.585007429597</v>
       </c>
       <c r="X38" t="n">
-        <v>1783.385329921332</v>
+        <v>1263.585007429597</v>
       </c>
       <c r="Y38" t="n">
-        <v>1386.894620841933</v>
+        <v>867.0942983501984</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>776.9798783881662</v>
+        <v>776.9798783881661</v>
       </c>
       <c r="C39" t="n">
-        <v>626.3256479482584</v>
+        <v>626.3256479482583</v>
       </c>
       <c r="D39" t="n">
-        <v>496.2366805697387</v>
+        <v>496.2366805697386</v>
       </c>
       <c r="E39" t="n">
-        <v>359.7901896806264</v>
+        <v>359.7901896806263</v>
       </c>
       <c r="F39" t="n">
-        <v>235.3583835637582</v>
+        <v>235.3583835637581</v>
       </c>
       <c r="G39" t="n">
         <v>116.8425487457821</v>
       </c>
       <c r="H39" t="n">
-        <v>43.45675869976551</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="I39" t="n">
         <v>47.15351322919123</v>
       </c>
       <c r="J39" t="n">
-        <v>303.2381764420956</v>
+        <v>277.9784358170094</v>
       </c>
       <c r="K39" t="n">
-        <v>458.895167155183</v>
+        <v>433.6354265300968</v>
       </c>
       <c r="L39" t="n">
-        <v>698.3048521855344</v>
+        <v>673.0451115604483</v>
       </c>
       <c r="M39" t="n">
-        <v>990.2666267026063</v>
+        <v>965.0068860775202</v>
       </c>
       <c r="N39" t="n">
-        <v>1299.321379827007</v>
+        <v>1274.061639201921</v>
       </c>
       <c r="O39" t="n">
-        <v>1567.603233309741</v>
+        <v>1542.343492684655</v>
       </c>
       <c r="P39" t="n">
-        <v>1770.356579817508</v>
+        <v>1745.096839192422</v>
       </c>
       <c r="Q39" t="n">
         <v>2172.627967404173</v>
@@ -7286,19 +7286,19 @@
         <v>1960.016320384418</v>
       </c>
       <c r="U39" t="n">
-        <v>1750.054754899255</v>
+        <v>1750.054754899254</v>
       </c>
       <c r="V39" t="n">
         <v>1527.514753270322</v>
       </c>
       <c r="W39" t="n">
-        <v>1297.397507403609</v>
+        <v>1297.397507403608</v>
       </c>
       <c r="X39" t="n">
         <v>1108.09042975362</v>
       </c>
       <c r="Y39" t="n">
-        <v>928.7762128291275</v>
+        <v>928.7762128291274</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1087.276893957065</v>
+        <v>665.5782629834882</v>
       </c>
       <c r="C40" t="n">
-        <v>917.0717760230543</v>
+        <v>665.5782629834882</v>
       </c>
       <c r="D40" t="n">
-        <v>761.4386629255691</v>
+        <v>509.9451498860029</v>
       </c>
       <c r="E40" t="n">
-        <v>605.8798507847716</v>
+        <v>354.3863377452054</v>
       </c>
       <c r="F40" t="n">
-        <v>448.5539159977446</v>
+        <v>354.3863377452054</v>
       </c>
       <c r="G40" t="n">
-        <v>281.5942856709937</v>
+        <v>187.4267074184545</v>
       </c>
       <c r="H40" t="n">
-        <v>137.6243369523046</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="I40" t="n">
-        <v>43.45675869976551</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="J40" t="n">
         <v>103.3775994115472</v>
@@ -7359,25 +7359,25 @@
         <v>2172.837934988275</v>
       </c>
       <c r="S40" t="n">
-        <v>2172.837934988275</v>
+        <v>1992.58012381611</v>
       </c>
       <c r="T40" t="n">
-        <v>2172.837934988275</v>
+        <v>1762.391790890595</v>
       </c>
       <c r="U40" t="n">
-        <v>2172.837934988275</v>
+        <v>1477.023604054703</v>
       </c>
       <c r="V40" t="n">
-        <v>1906.858589809099</v>
+        <v>1211.044258875528</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.67729604874</v>
+        <v>927.7138568067053</v>
       </c>
       <c r="X40" t="n">
-        <v>1495.596973831723</v>
+        <v>693.6335345896883</v>
       </c>
       <c r="Y40" t="n">
-        <v>1272.484912648366</v>
+        <v>665.5782629834882</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1256.110223550313</v>
+        <v>1316.994984773054</v>
       </c>
       <c r="C41" t="n">
-        <v>862.9347220532431</v>
+        <v>923.8194832759841</v>
       </c>
       <c r="D41" t="n">
-        <v>862.9347220532431</v>
+        <v>923.8194832759841</v>
       </c>
       <c r="E41" t="n">
-        <v>460.3511971697877</v>
+        <v>897.7146057218096</v>
       </c>
       <c r="F41" t="n">
-        <v>43.45675869976549</v>
+        <v>480.8201672517873</v>
       </c>
       <c r="G41" t="n">
-        <v>43.45675869976549</v>
+        <v>70.54310705279242</v>
       </c>
       <c r="H41" t="n">
-        <v>43.45675869976549</v>
+        <v>70.54310705279242</v>
       </c>
       <c r="I41" t="n">
-        <v>43.45675869976549</v>
+        <v>43.45675869976551</v>
       </c>
       <c r="J41" t="n">
-        <v>166.9995980355623</v>
+        <v>166.9995980355626</v>
       </c>
       <c r="K41" t="n">
-        <v>385.1383258824824</v>
+        <v>385.1383258824829</v>
       </c>
       <c r="L41" t="n">
-        <v>679.7448521300327</v>
+        <v>679.7448521300332</v>
       </c>
       <c r="M41" t="n">
         <v>1028.136511519569</v>
       </c>
       <c r="N41" t="n">
-        <v>1385.164487636534</v>
+        <v>1385.164487636535</v>
       </c>
       <c r="O41" t="n">
         <v>1713.627961551485</v>
       </c>
       <c r="P41" t="n">
-        <v>1971.538286708529</v>
+        <v>1971.53828670853</v>
       </c>
       <c r="Q41" t="n">
         <v>2133.905914674596</v>
@@ -7441,22 +7441,22 @@
         <v>2172.837934988275</v>
       </c>
       <c r="T41" t="n">
-        <v>2172.837934988275</v>
+        <v>1961.969463780358</v>
       </c>
       <c r="U41" t="n">
-        <v>2172.837934988275</v>
+        <v>1706.447589839997</v>
       </c>
       <c r="V41" t="n">
-        <v>2172.837934988275</v>
+        <v>1706.447589839997</v>
       </c>
       <c r="W41" t="n">
-        <v>2172.837934988275</v>
+        <v>1706.447589839997</v>
       </c>
       <c r="X41" t="n">
-        <v>1783.385329921332</v>
+        <v>1316.994984773054</v>
       </c>
       <c r="Y41" t="n">
-        <v>1386.894620841933</v>
+        <v>1316.994984773054</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>776.9798783881661</v>
+        <v>712.7891486073011</v>
       </c>
       <c r="C42" t="n">
-        <v>626.3256479482583</v>
+        <v>562.1349181673933</v>
       </c>
       <c r="D42" t="n">
-        <v>496.2366805697386</v>
+        <v>432.0459507888736</v>
       </c>
       <c r="E42" t="n">
-        <v>359.7901896806263</v>
+        <v>295.5994598997613</v>
       </c>
       <c r="F42" t="n">
-        <v>235.3583835637581</v>
+        <v>171.1676537828931</v>
       </c>
       <c r="G42" t="n">
-        <v>116.8425487457821</v>
+        <v>52.65181896491706</v>
       </c>
       <c r="H42" t="n">
-        <v>43.45675869976549</v>
+        <v>43.45675869976551</v>
       </c>
       <c r="I42" t="n">
-        <v>43.45675869976549</v>
+        <v>47.15351322919124</v>
       </c>
       <c r="J42" t="n">
-        <v>299.5414219126698</v>
+        <v>277.9784358170099</v>
       </c>
       <c r="K42" t="n">
-        <v>455.1984126257572</v>
+        <v>433.6354265300973</v>
       </c>
       <c r="L42" t="n">
-        <v>751.6728603471678</v>
+        <v>673.0451115604487</v>
       </c>
       <c r="M42" t="n">
-        <v>1289.450249256766</v>
+        <v>965.0068860775207</v>
       </c>
       <c r="N42" t="n">
-        <v>1598.505002381166</v>
+        <v>1274.061639201921</v>
       </c>
       <c r="O42" t="n">
-        <v>1866.7868558639</v>
+        <v>1542.343492684655</v>
       </c>
       <c r="P42" t="n">
-        <v>2069.540202371667</v>
+        <v>1745.096839192423</v>
       </c>
       <c r="Q42" t="n">
         <v>2172.627967404173</v>
@@ -7517,25 +7517,25 @@
         <v>2172.837934988275</v>
       </c>
       <c r="S42" t="n">
-        <v>2130.776796754647</v>
+        <v>2066.586066973782</v>
       </c>
       <c r="T42" t="n">
-        <v>1960.016320384418</v>
+        <v>1895.825590603553</v>
       </c>
       <c r="U42" t="n">
-        <v>1750.054754899254</v>
+        <v>1685.864025118389</v>
       </c>
       <c r="V42" t="n">
-        <v>1527.514753270322</v>
+        <v>1463.324023489457</v>
       </c>
       <c r="W42" t="n">
-        <v>1297.397507403608</v>
+        <v>1233.206777622743</v>
       </c>
       <c r="X42" t="n">
-        <v>1108.09042975362</v>
+        <v>1043.899699972755</v>
       </c>
       <c r="Y42" t="n">
-        <v>928.7762128291274</v>
+        <v>864.5854830482624</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>369.2206887745738</v>
+        <v>1054.292390304519</v>
       </c>
       <c r="C43" t="n">
-        <v>199.015570840563</v>
+        <v>884.0872723705083</v>
       </c>
       <c r="D43" t="n">
-        <v>199.015570840563</v>
+        <v>761.4386629255691</v>
       </c>
       <c r="E43" t="n">
-        <v>43.45675869976549</v>
+        <v>605.8798507847716</v>
       </c>
       <c r="F43" t="n">
-        <v>43.45675869976549</v>
+        <v>448.5539159977446</v>
       </c>
       <c r="G43" t="n">
-        <v>43.45675869976549</v>
+        <v>281.5942856709937</v>
       </c>
       <c r="H43" t="n">
-        <v>43.45675869976549</v>
+        <v>137.6243369523046</v>
       </c>
       <c r="I43" t="n">
-        <v>43.45675869976549</v>
+        <v>43.45675869976551</v>
       </c>
       <c r="J43" t="n">
         <v>103.3775994115472</v>
@@ -7575,7 +7575,7 @@
         <v>332.6083939857839</v>
       </c>
       <c r="L43" t="n">
-        <v>685.3518517120938</v>
+        <v>685.351851712094</v>
       </c>
       <c r="M43" t="n">
         <v>1070.51236408673</v>
@@ -7593,28 +7593,28 @@
         <v>2172.837934988275</v>
       </c>
       <c r="R43" t="n">
-        <v>2172.837934988275</v>
+        <v>2107.138936493874</v>
       </c>
       <c r="S43" t="n">
-        <v>1992.58012381611</v>
+        <v>1926.881125321708</v>
       </c>
       <c r="T43" t="n">
-        <v>1762.391790890595</v>
+        <v>1696.692792396194</v>
       </c>
       <c r="U43" t="n">
-        <v>1477.023604054703</v>
+        <v>1696.692792396194</v>
       </c>
       <c r="V43" t="n">
-        <v>1211.044258875528</v>
+        <v>1696.692792396194</v>
       </c>
       <c r="W43" t="n">
-        <v>1011.621090866249</v>
+        <v>1696.692792396194</v>
       </c>
       <c r="X43" t="n">
-        <v>777.5407686492317</v>
+        <v>1462.612470179177</v>
       </c>
       <c r="Y43" t="n">
-        <v>554.428707465875</v>
+        <v>1239.50040899582</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>885.6441020166185</v>
+        <v>890.0210704062702</v>
       </c>
       <c r="C44" t="n">
-        <v>885.6441020166185</v>
+        <v>890.0210704062702</v>
       </c>
       <c r="D44" t="n">
-        <v>862.9347220532431</v>
+        <v>890.0210704062702</v>
       </c>
       <c r="E44" t="n">
-        <v>460.3511971697877</v>
+        <v>487.4375455228147</v>
       </c>
       <c r="F44" t="n">
-        <v>43.45675869976549</v>
+        <v>70.54310705279242</v>
       </c>
       <c r="G44" t="n">
-        <v>43.45675869976549</v>
+        <v>70.54310705279242</v>
       </c>
       <c r="H44" t="n">
-        <v>43.45675869976549</v>
+        <v>70.54310705279242</v>
       </c>
       <c r="I44" t="n">
-        <v>43.45675869976549</v>
+        <v>43.45675869976551</v>
       </c>
       <c r="J44" t="n">
         <v>166.9995980355625</v>
       </c>
       <c r="K44" t="n">
-        <v>385.1383258824827</v>
+        <v>385.1383258824828</v>
       </c>
       <c r="L44" t="n">
-        <v>679.744852130033</v>
+        <v>679.7448521300331</v>
       </c>
       <c r="M44" t="n">
         <v>1028.136511519569</v>
@@ -7678,22 +7678,22 @@
         <v>2072.082161874358</v>
       </c>
       <c r="T44" t="n">
-        <v>2072.082161874358</v>
+        <v>1861.213690666441</v>
       </c>
       <c r="U44" t="n">
-        <v>2072.082161874358</v>
+        <v>1605.691816726079</v>
       </c>
       <c r="V44" t="n">
-        <v>2072.082161874358</v>
+        <v>1605.691816726079</v>
       </c>
       <c r="W44" t="n">
-        <v>2072.082161874358</v>
+        <v>1234.692781694367</v>
       </c>
       <c r="X44" t="n">
-        <v>1682.629556807414</v>
+        <v>1234.692781694367</v>
       </c>
       <c r="Y44" t="n">
-        <v>1286.138847728015</v>
+        <v>890.0210704062702</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>776.9798783881661</v>
+        <v>712.7891486073011</v>
       </c>
       <c r="C45" t="n">
-        <v>626.3256479482583</v>
+        <v>562.1349181673933</v>
       </c>
       <c r="D45" t="n">
-        <v>496.2366805697386</v>
+        <v>432.0459507888736</v>
       </c>
       <c r="E45" t="n">
-        <v>359.7901896806263</v>
+        <v>295.5994598997613</v>
       </c>
       <c r="F45" t="n">
-        <v>235.3583835637581</v>
+        <v>171.1676537828931</v>
       </c>
       <c r="G45" t="n">
-        <v>116.8425487457821</v>
+        <v>52.65181896491706</v>
       </c>
       <c r="H45" t="n">
-        <v>43.45675869976549</v>
+        <v>43.45675869976551</v>
       </c>
       <c r="I45" t="n">
-        <v>47.15351322919122</v>
+        <v>43.45675869976551</v>
       </c>
       <c r="J45" t="n">
-        <v>303.2381764420956</v>
+        <v>104.8064269329425</v>
       </c>
       <c r="K45" t="n">
-        <v>687.7751228527387</v>
+        <v>433.6354265300973</v>
       </c>
       <c r="L45" t="n">
-        <v>927.1848078830901</v>
+        <v>673.0451115604487</v>
       </c>
       <c r="M45" t="n">
-        <v>1219.146582400162</v>
+        <v>965.0068860775207</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.201335524563</v>
+        <v>1274.061639201921</v>
       </c>
       <c r="O45" t="n">
-        <v>1796.483189007297</v>
+        <v>1542.343492684655</v>
       </c>
       <c r="P45" t="n">
-        <v>1999.236535515064</v>
+        <v>1745.096839192423</v>
       </c>
       <c r="Q45" t="n">
-        <v>2102.324300547569</v>
+        <v>2172.627967404173</v>
       </c>
       <c r="R45" t="n">
         <v>2172.837934988275</v>
@@ -7757,22 +7757,22 @@
         <v>2066.586066973782</v>
       </c>
       <c r="T45" t="n">
-        <v>1895.825590603552</v>
+        <v>1895.825590603553</v>
       </c>
       <c r="U45" t="n">
-        <v>1750.054754899254</v>
+        <v>1685.864025118389</v>
       </c>
       <c r="V45" t="n">
-        <v>1527.514753270322</v>
+        <v>1463.324023489457</v>
       </c>
       <c r="W45" t="n">
-        <v>1297.397507403608</v>
+        <v>1233.206777622743</v>
       </c>
       <c r="X45" t="n">
-        <v>1108.09042975362</v>
+        <v>1043.899699972755</v>
       </c>
       <c r="Y45" t="n">
-        <v>928.7762128291274</v>
+        <v>864.5854830482624</v>
       </c>
     </row>
     <row r="46">
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>787.7481330975786</v>
+        <v>993.1093157045261</v>
       </c>
       <c r="C46" t="n">
-        <v>617.5430151635678</v>
+        <v>822.9041977705153</v>
       </c>
       <c r="D46" t="n">
-        <v>461.9099020660826</v>
+        <v>667.27108467303</v>
       </c>
       <c r="E46" t="n">
-        <v>461.9099020660826</v>
+        <v>511.7122725322325</v>
       </c>
       <c r="F46" t="n">
-        <v>304.5839672790555</v>
+        <v>354.3863377452055</v>
       </c>
       <c r="G46" t="n">
-        <v>137.6243369523046</v>
+        <v>187.4267074184546</v>
       </c>
       <c r="H46" t="n">
-        <v>137.6243369523046</v>
+        <v>43.45675869976551</v>
       </c>
       <c r="I46" t="n">
-        <v>43.45675869976549</v>
+        <v>43.45675869976551</v>
       </c>
       <c r="J46" t="n">
-        <v>103.3775994115473</v>
+        <v>103.3775994115472</v>
       </c>
       <c r="K46" t="n">
         <v>332.608393985784</v>
       </c>
       <c r="L46" t="n">
-        <v>685.351851712094</v>
+        <v>685.3518517120939</v>
       </c>
       <c r="M46" t="n">
         <v>1070.51236408673</v>
@@ -7830,28 +7830,28 @@
         <v>2172.837934988275</v>
       </c>
       <c r="R46" t="n">
-        <v>2172.837934988275</v>
+        <v>2107.138936493874</v>
       </c>
       <c r="S46" t="n">
-        <v>2172.837934988275</v>
+        <v>2107.138936493874</v>
       </c>
       <c r="T46" t="n">
-        <v>2172.837934988275</v>
+        <v>2107.138936493874</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.469748152383</v>
+        <v>1821.770749657982</v>
       </c>
       <c r="V46" t="n">
-        <v>1621.490402973207</v>
+        <v>1555.791404478806</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.160000904385</v>
+        <v>1272.461002409984</v>
       </c>
       <c r="X46" t="n">
-        <v>1104.079678687368</v>
+        <v>1178.317334395827</v>
       </c>
       <c r="Y46" t="n">
-        <v>880.9676175040115</v>
+        <v>1178.317334395827</v>
       </c>
     </row>
   </sheetData>
@@ -8695,10 +8695,10 @@
         <v>65.01946517481471</v>
       </c>
       <c r="L11" t="n">
-        <v>56.43396646106821</v>
+        <v>56.4339664610682</v>
       </c>
       <c r="M11" t="n">
-        <v>42.0005963606051</v>
+        <v>42.00059636060509</v>
       </c>
       <c r="N11" t="n">
         <v>39.65094179247474</v>
@@ -8707,7 +8707,7 @@
         <v>46.19673452270656</v>
       </c>
       <c r="P11" t="n">
-        <v>62.08001639703512</v>
+        <v>62.08001639703511</v>
       </c>
       <c r="Q11" t="n">
         <v>78.24807792626756</v>
@@ -8768,16 +8768,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>51.43211845760856</v>
+        <v>51.43211845760855</v>
       </c>
       <c r="K12" t="n">
-        <v>36.59190862205907</v>
+        <v>36.59190862205906</v>
       </c>
       <c r="L12" t="n">
         <v>18.78854721703357</v>
       </c>
       <c r="M12" t="n">
-        <v>9.21629354317848</v>
+        <v>9.216293543178466</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>14.58875442338393</v>
       </c>
       <c r="P12" t="n">
-        <v>24.40218892352033</v>
+        <v>24.40218892352032</v>
       </c>
       <c r="Q12" t="n">
         <v>49.08744703089221</v>
@@ -8853,7 +8853,7 @@
         <v>51.88619524178843</v>
       </c>
       <c r="L13" t="n">
-        <v>46.76134641422897</v>
+        <v>46.76134641422896</v>
       </c>
       <c r="M13" t="n">
         <v>47.16400664275908</v>
@@ -8862,10 +8862,10 @@
         <v>40.88357032611205</v>
       </c>
       <c r="O13" t="n">
-        <v>51.09947095584661</v>
+        <v>51.0994709558466</v>
       </c>
       <c r="P13" t="n">
-        <v>56.23986070246485</v>
+        <v>56.23986070246484</v>
       </c>
       <c r="Q13" t="n">
         <v>75.43459031707346</v>
@@ -8932,10 +8932,10 @@
         <v>65.01946517481471</v>
       </c>
       <c r="L14" t="n">
-        <v>56.43396646106821</v>
+        <v>56.4339664610682</v>
       </c>
       <c r="M14" t="n">
-        <v>42.0005963606051</v>
+        <v>42.00059636060509</v>
       </c>
       <c r="N14" t="n">
         <v>39.65094179247474</v>
@@ -8944,7 +8944,7 @@
         <v>46.19673452270656</v>
       </c>
       <c r="P14" t="n">
-        <v>62.08001639703512</v>
+        <v>62.08001639703511</v>
       </c>
       <c r="Q14" t="n">
         <v>78.24807792626756</v>
@@ -9005,16 +9005,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>51.43211845760856</v>
+        <v>51.43211845760855</v>
       </c>
       <c r="K15" t="n">
-        <v>36.59190862205907</v>
+        <v>36.59190862205906</v>
       </c>
       <c r="L15" t="n">
         <v>18.78854721703357</v>
       </c>
       <c r="M15" t="n">
-        <v>9.21629354317848</v>
+        <v>9.216293543178466</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>14.58875442338393</v>
       </c>
       <c r="P15" t="n">
-        <v>24.40218892352033</v>
+        <v>24.40218892352032</v>
       </c>
       <c r="Q15" t="n">
         <v>49.08744703089221</v>
@@ -9090,7 +9090,7 @@
         <v>51.88619524178843</v>
       </c>
       <c r="L16" t="n">
-        <v>46.76134641422897</v>
+        <v>46.76134641422896</v>
       </c>
       <c r="M16" t="n">
         <v>47.16400664275908</v>
@@ -9099,10 +9099,10 @@
         <v>40.88357032611205</v>
       </c>
       <c r="O16" t="n">
-        <v>51.09947095584661</v>
+        <v>51.0994709558466</v>
       </c>
       <c r="P16" t="n">
-        <v>56.23986070246485</v>
+        <v>56.23986070246484</v>
       </c>
       <c r="Q16" t="n">
         <v>75.43459031707346</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>70.99868952603332</v>
+        <v>37.19273926443817</v>
       </c>
       <c r="K17" t="n">
-        <v>66.20601395392136</v>
+        <v>22.42910638900565</v>
       </c>
       <c r="L17" t="n">
-        <v>54.58257212084939</v>
+        <v>3.596860290129371</v>
       </c>
       <c r="M17" t="n">
-        <v>37.82573338527529</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>21.93847891981886</v>
+        <v>7.827279405889222</v>
       </c>
       <c r="O17" t="n">
-        <v>29.47135809837131</v>
+        <v>36.37582842048792</v>
       </c>
       <c r="P17" t="n">
-        <v>47.80529457412446</v>
+        <v>60.52497889165156</v>
       </c>
       <c r="Q17" t="n">
-        <v>67.52835632263863</v>
+        <v>88.68378144869793</v>
       </c>
       <c r="R17" t="n">
-        <v>95.35752597964539</v>
+        <v>80.56097160438645</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>46.41414826267753</v>
+        <v>34.50689275259757</v>
       </c>
       <c r="K18" t="n">
-        <v>28.01539830838859</v>
+        <v>7.664002081908222</v>
       </c>
       <c r="L18" t="n">
-        <v>20.51192816474446</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>9.572473684678371</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>15.76561647365047</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>14.26002345548694</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>42.30767800655385</v>
+        <v>62.16548094819633</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9324,25 +9324,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K19" t="n">
-        <v>46.71287812584318</v>
+        <v>79.14696740798755</v>
       </c>
       <c r="L19" t="n">
-        <v>40.1412816165632</v>
+        <v>71.02487554313737</v>
       </c>
       <c r="M19" t="n">
-        <v>53.99776272239323</v>
+        <v>70.21373782243759</v>
       </c>
       <c r="N19" t="n">
-        <v>47.8832935432687</v>
+        <v>17.90059970812949</v>
       </c>
       <c r="O19" t="n">
-        <v>58.61935946987256</v>
+        <v>29.87097768855065</v>
       </c>
       <c r="P19" t="n">
-        <v>64.1099869603599</v>
+        <v>84.66771350420916</v>
       </c>
       <c r="Q19" t="n">
-        <v>71.70599689336676</v>
+        <v>62.85833282510903</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>57.18500331883705</v>
+        <v>83.78523539189031</v>
       </c>
       <c r="K20" t="n">
-        <v>52.39232774672509</v>
+        <v>22.42910638900565</v>
       </c>
       <c r="L20" t="n">
-        <v>40.76888591365312</v>
+        <v>3.596860290129371</v>
       </c>
       <c r="M20" t="n">
-        <v>38.38386212091957</v>
+        <v>29.80163125245141</v>
       </c>
       <c r="N20" t="n">
-        <v>35.75216512701513</v>
+        <v>14.40147657392574</v>
       </c>
       <c r="O20" t="n">
-        <v>43.28504430556758</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>61.06085204567644</v>
+        <v>13.93248276419942</v>
       </c>
       <c r="Q20" t="n">
-        <v>67.52835632263863</v>
+        <v>88.68378144869793</v>
       </c>
       <c r="R20" t="n">
-        <v>95.35752597964539</v>
+        <v>80.56097160438645</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>60.2278344698738</v>
+        <v>70.45256368390474</v>
       </c>
       <c r="K21" t="n">
-        <v>28.01539830838859</v>
+        <v>7.664002081908222</v>
       </c>
       <c r="L21" t="n">
-        <v>7.256370693192494</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>9.572473684678371</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>15.20748773800618</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>14.26002345548694</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>42.30767800655385</v>
+        <v>26.21981001688917</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9561,25 +9561,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K22" t="n">
-        <v>60.52656433303945</v>
+        <v>79.14696740798755</v>
       </c>
       <c r="L22" t="n">
-        <v>53.95496782375947</v>
+        <v>71.02487554313737</v>
       </c>
       <c r="M22" t="n">
-        <v>53.99776272239323</v>
+        <v>23.62124169498547</v>
       </c>
       <c r="N22" t="n">
-        <v>47.32516480762441</v>
+        <v>64.49309583558163</v>
       </c>
       <c r="O22" t="n">
-        <v>44.80567326267629</v>
+        <v>29.87097768855065</v>
       </c>
       <c r="P22" t="n">
-        <v>50.85442948880792</v>
+        <v>84.66771350420916</v>
       </c>
       <c r="Q22" t="n">
-        <v>71.70599689336676</v>
+        <v>62.85833282510903</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>15.79616555179249</v>
+        <v>12.0620700675241</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>272.217712552388</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>302.2056793476357</v>
+        <v>159.4102725048937</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>15.79616555179249</v>
+        <v>12.06207006752407</v>
       </c>
       <c r="J27" t="n">
         <v>196.7020151310378</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>231.1918744419746</v>
+        <v>305.9397748319037</v>
       </c>
       <c r="R27" t="n">
-        <v>71.01380490566048</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>15.79616555179249</v>
+        <v>12.06207006752407</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10199,19 +10199,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>248.2986003964911</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>231.0329654395933</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>164.2336663247289</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>338.408123638213</v>
       </c>
       <c r="Q30" t="n">
-        <v>19.57612864258911</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>15.79616555179249</v>
+        <v>12.06207006752407</v>
       </c>
       <c r="J33" t="n">
-        <v>89.48576593480044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10442,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>272.217712552388</v>
       </c>
       <c r="P33" t="n">
-        <v>338.4081236382131</v>
+        <v>159.4102725048936</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10521,7 +10521,7 @@
         <v>268.0356382773604</v>
       </c>
       <c r="O34" t="n">
-        <v>254.3449995307765</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P34" t="n">
         <v>210.6102387699041</v>
@@ -10667,7 +10667,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>302.2056793476359</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>302.2056793476357</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10764,7 +10764,7 @@
         <v>210.6102387699041</v>
       </c>
       <c r="Q37" t="n">
-        <v>101.9350150692924</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>171.1871256107487</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>302.2056793476362</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -11135,19 +11135,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>12.06207006752408</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>171.1871256107491</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>57.64117443541329</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>248.298600396491</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11226,7 +11226,7 @@
         <v>253.4605344048249</v>
       </c>
       <c r="M43" t="n">
-        <v>278.475071018735</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N43" t="n">
         <v>268.0356382773604</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>15.79616555179249</v>
+        <v>12.06207006752407</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>231.1918744419755</v>
+        <v>174.9212210950175</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
-        <v>71.01380490566048</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23357,7 +23357,7 @@
         <v>84.24424724889813</v>
       </c>
       <c r="I12" t="n">
-        <v>37.59182348086898</v>
+        <v>37.59182348086897</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>84.24424724889813</v>
       </c>
       <c r="I15" t="n">
-        <v>37.59182348086898</v>
+        <v>37.59182348086897</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.6761120470866</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>377.0766516708002</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>367.7730312883027</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>366.1329979578699</v>
       </c>
       <c r="G17" t="n">
-        <v>408.3183653580343</v>
+        <v>408.0828123860683</v>
       </c>
       <c r="H17" t="n">
-        <v>313.5426399637784</v>
+        <v>311.1302830896317</v>
       </c>
       <c r="I17" t="n">
-        <v>109.4749656465841</v>
+        <v>100.3938096948651</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>148.6063417872363</v>
+        <v>102.2000078495014</v>
       </c>
       <c r="T17" t="n">
-        <v>218.1454781397444</v>
+        <v>217.1143450049633</v>
       </c>
       <c r="U17" t="n">
-        <v>253.13818126184</v>
+        <v>253.1193370240827</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>292.0932450760646</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>320.6965485539433</v>
       </c>
       <c r="X17" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>378.7121157814086</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23813,7 +23813,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C18" t="n">
-        <v>136.9805933242102</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
         <v>128.7880777047345</v>
@@ -23825,13 +23825,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>118.4778581375962</v>
+        <v>118.3518261866051</v>
       </c>
       <c r="H18" t="n">
-        <v>83.73129193720239</v>
+        <v>82.51408862105197</v>
       </c>
       <c r="I18" t="n">
-        <v>35.7631680781389</v>
+        <v>31.42391011638561</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>126.4977456638763</v>
+        <v>124.156757451389</v>
       </c>
       <c r="T18" t="n">
-        <v>159.8631325603311</v>
+        <v>173.168821561559</v>
       </c>
       <c r="U18" t="n">
-        <v>207.9374223084566</v>
+        <v>161.3366346052813</v>
       </c>
       <c r="V18" t="n">
-        <v>206.5009154054474</v>
+        <v>179.2759310235838</v>
       </c>
       <c r="W18" t="n">
-        <v>214.0023872008497</v>
+        <v>181.2235772805939</v>
       </c>
       <c r="X18" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y18" t="n">
-        <v>177.5210747552478</v>
+        <v>130.9285786277957</v>
       </c>
     </row>
     <row r="19">
@@ -23892,25 +23892,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>154.6893805474744</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>149.3063586575363</v>
+        <v>112.9645534303297</v>
       </c>
       <c r="F19" t="n">
-        <v>141.9389892319605</v>
+        <v>109.1601793117046</v>
       </c>
       <c r="G19" t="n">
-        <v>152.4381063902407</v>
+        <v>119.5536355159616</v>
       </c>
       <c r="H19" t="n">
-        <v>151.0811572799257</v>
+        <v>150.1417353432461</v>
       </c>
       <c r="I19" t="n">
-        <v>122.1486057667267</v>
+        <v>118.9710927130087</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>108.2861712983158</v>
+        <v>103.5352705837785</v>
       </c>
       <c r="S19" t="n">
-        <v>195.2160620265254</v>
+        <v>193.374679764138</v>
       </c>
       <c r="T19" t="n">
-        <v>231.9957816849699</v>
+        <v>231.5443212450523</v>
       </c>
       <c r="U19" t="n">
-        <v>282.566964526112</v>
+        <v>282.561201201347</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>216.7270555999319</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.6761120470866</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>340.5480469064391</v>
       </c>
       <c r="E20" t="n">
-        <v>384.7440034274246</v>
+        <v>351.9651935071687</v>
       </c>
       <c r="F20" t="n">
-        <v>400.5583992740235</v>
+        <v>366.1329979578699</v>
       </c>
       <c r="G20" t="n">
-        <v>408.3183653580343</v>
+        <v>408.0828123860683</v>
       </c>
       <c r="H20" t="n">
-        <v>313.5426399637784</v>
+        <v>311.1302830896317</v>
       </c>
       <c r="I20" t="n">
-        <v>109.4749656465841</v>
+        <v>100.3938096948651</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>148.6063417872363</v>
+        <v>96.6461823111091</v>
       </c>
       <c r="T20" t="n">
-        <v>218.1454781397444</v>
+        <v>217.1143450049633</v>
       </c>
       <c r="U20" t="n">
-        <v>253.13818126184</v>
+        <v>253.1193370240827</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
@@ -24037,7 +24037,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>378.7121157814086</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>138.1112762852532</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
         <v>149.1476881355087</v>
@@ -24062,13 +24062,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>118.4778581375962</v>
+        <v>118.3518261866051</v>
       </c>
       <c r="H21" t="n">
-        <v>83.73129193720239</v>
+        <v>82.51408862105197</v>
       </c>
       <c r="I21" t="n">
-        <v>35.7631680781389</v>
+        <v>31.42391011638561</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>126.4977456638763</v>
+        <v>77.56426132393685</v>
       </c>
       <c r="T21" t="n">
-        <v>173.6768187675274</v>
+        <v>173.168821561559</v>
       </c>
       <c r="U21" t="n">
-        <v>194.1237361012603</v>
+        <v>207.9291307327335</v>
       </c>
       <c r="V21" t="n">
-        <v>206.5009154054474</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W21" t="n">
-        <v>214.0023872008497</v>
+        <v>181.2235772805939</v>
       </c>
       <c r="X21" t="n">
-        <v>187.4140068734885</v>
+        <v>146.3753362844286</v>
       </c>
       <c r="Y21" t="n">
-        <v>177.5210747552478</v>
+        <v>130.9285786277957</v>
       </c>
     </row>
     <row r="22">
@@ -24129,7 +24129,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>121.9105706272185</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
@@ -24138,16 +24138,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>151.0558100773036</v>
+        <v>109.1601793117046</v>
       </c>
       <c r="G22" t="n">
-        <v>166.251792597437</v>
+        <v>166.1461316434137</v>
       </c>
       <c r="H22" t="n">
-        <v>151.0811572799257</v>
+        <v>150.1417353432461</v>
       </c>
       <c r="I22" t="n">
-        <v>122.1486057667267</v>
+        <v>118.9710927130087</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>108.2861712983158</v>
+        <v>103.5352705837785</v>
       </c>
       <c r="S22" t="n">
-        <v>195.2160620265254</v>
+        <v>193.374679764138</v>
       </c>
       <c r="T22" t="n">
-        <v>231.9957816849699</v>
+        <v>231.5443212450523</v>
       </c>
       <c r="U22" t="n">
-        <v>268.7532783189157</v>
+        <v>282.561201201347</v>
       </c>
       <c r="V22" t="n">
-        <v>249.5058655201877</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>266.6834118409379</v>
+        <v>239.4584274590743</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>185.1470228673946</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24226,7 +24226,7 @@
         <v>291.5846240761357</v>
       </c>
       <c r="I23" t="n">
-        <v>26.81548486949666</v>
+        <v>26.81548486949671</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>99.74821538277803</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,16 +24265,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>293.3242144382676</v>
       </c>
       <c r="X23" t="n">
-        <v>339.2323690359567</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24299,7 +24299,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>63.54882248305771</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>63.54882248305715</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>99.69282426870889</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.2900340234834</v>
       </c>
       <c r="H25" t="n">
-        <v>142.5302492315022</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>93.22590247001374</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>65.04200850945782</v>
+        <v>65.04200850945784</v>
       </c>
       <c r="S25" t="n">
-        <v>178.4552330604436</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>227.8864495962592</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>151.8459704913953</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>204.6058233925305</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
@@ -24463,7 +24463,7 @@
         <v>291.5846240761357</v>
       </c>
       <c r="I26" t="n">
-        <v>26.81548486949663</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>99.74821538277797</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>208.7597864958381</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>252.9666552009576</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>89.59945110127222</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24533,10 +24533,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>63.54882248305683</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>63.54882248305681</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>139.0291693586491</v>
       </c>
       <c r="H28" t="n">
-        <v>142.5302492315021</v>
+        <v>142.5302492315022</v>
       </c>
       <c r="I28" t="n">
         <v>93.22590247001372</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>65.04200850945782</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>178.4552330604436</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>227.8864495962592</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>151.8459704913953</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>110.853285936505</v>
+        <v>406.1742895970049</v>
       </c>
       <c r="H29" t="n">
         <v>291.5846240761357</v>
       </c>
       <c r="I29" t="n">
-        <v>26.81548486949666</v>
+        <v>26.81548486949664</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,19 +24736,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>252.9666552009576</v>
+        <v>15.17137979137055</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24776,7 +24776,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>63.54882248305682</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24812,7 +24812,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>63.54882248305687</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>35.74311693385245</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>56.1064593818558</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.2900340234834</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.5302492315022</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>65.04200850945782</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>178.4552330604436</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>227.8864495962592</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,25 +24919,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>61.22551949266136</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>130.9692941676088</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>406.1742895970049</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>291.5846240761357</v>
       </c>
       <c r="I32" t="n">
-        <v>26.81548486949666</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,19 +24973,19 @@
         <v>208.7597864958381</v>
       </c>
       <c r="U32" t="n">
-        <v>252.9666552009576</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -25013,7 +25013,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>63.54882248305682</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>63.5488224830567</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>178.4552330604436</v>
       </c>
       <c r="T34" t="n">
-        <v>227.8864495962592</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5145049675327</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>134.6965236037109</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>118.8627467198314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
@@ -25162,19 +25162,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>216.7858179798437</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>147.4435546792399</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>406.1742895970049</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>291.5846240761357</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>26.81548486949664</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>99.74821538277799</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>208.7597864958381</v>
       </c>
       <c r="U35" t="n">
-        <v>252.9666552009576</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25283,10 +25283,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>63.54882248305715</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>63.54882248305664</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>133.7634519912142</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.5302492315022</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5145049675327</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>134.6965236037113</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>380.8024742277867</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>235.8744683457556</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
@@ -25411,7 +25411,7 @@
         <v>291.5846240761357</v>
       </c>
       <c r="I38" t="n">
-        <v>26.81548486949666</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>99.74821538277799</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>208.7597864958381</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>252.9666552009576</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>63.54882248305671</v>
+        <v>63.54882248305715</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>93.22590247001372</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>65.04200850945782</v>
       </c>
       <c r="S40" t="n">
-        <v>178.4552330604436</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>227.8864495962592</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5145049675327</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>105.0876172253785</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>193.106221681385</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>267.0132449355791</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,19 +25636,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>372.7138608559881</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>406.1742895970049</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>291.5846240761357</v>
       </c>
       <c r="I41" t="n">
-        <v>26.81548486949666</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>99.74821538277799</v>
       </c>
       <c r="T41" t="n">
-        <v>208.7597864958381</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>252.9666552009576</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>63.54882248305638</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>63.54882248305715</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>32.65465861602058</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.2900340234834</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.5302492315022</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>93.22590247001374</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>65.04200850945782</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5145049675327</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>83.06816171894792</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>359.1044313317573</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>291.5846240761357</v>
       </c>
       <c r="I44" t="n">
-        <v>26.81548486949666</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>208.7597864958381</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>252.9666552009576</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>51.30080781338916</v>
       </c>
     </row>
     <row r="45">
@@ -25961,7 +25961,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>63.54882248305638</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -26000,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>63.54882248305688</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>91.06864894201969</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.5302492315022</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>93.22590247001372</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>65.04200850945782</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>178.4552330604436</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>138.5372876608319</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>242933.1305089656</v>
+        <v>269018.6844085383</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>242933.1305089656</v>
+        <v>269018.6844085383</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>681238.9667201749</v>
+        <v>681238.9667201746</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>681238.9667201749</v>
+        <v>681238.9667201748</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>681238.9667201749</v>
+        <v>681238.966720175</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>681238.966720175</v>
+        <v>681238.9667201749</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>681238.9667201748</v>
+        <v>681238.9667201749</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>681238.9667201749</v>
+        <v>681238.9667201748</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>681238.9667201749</v>
+        <v>681238.9667201748</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>681238.9667201748</v>
+        <v>681238.9667201749</v>
       </c>
     </row>
   </sheetData>
@@ -26322,19 +26322,19 @@
         <v>56359.2430183</v>
       </c>
       <c r="E2" t="n">
-        <v>60009.8068899311</v>
+        <v>60009.80688993109</v>
       </c>
       <c r="F2" t="n">
-        <v>60009.8068899311</v>
+        <v>60009.80688993109</v>
       </c>
       <c r="G2" t="n">
-        <v>63353.8681283839</v>
+        <v>71164.64895697807</v>
       </c>
       <c r="H2" t="n">
-        <v>63353.86812838393</v>
+        <v>71164.64895697807</v>
       </c>
       <c r="I2" t="n">
-        <v>182934.3479947676</v>
+        <v>182934.3479947675</v>
       </c>
       <c r="J2" t="n">
         <v>182934.3479947677</v>
@@ -26346,16 +26346,16 @@
         <v>182934.3479947676</v>
       </c>
       <c r="M2" t="n">
+        <v>182934.3479947677</v>
+      </c>
+      <c r="N2" t="n">
         <v>182934.3479947676</v>
       </c>
-      <c r="N2" t="n">
-        <v>182934.3479947675</v>
-      </c>
       <c r="O2" t="n">
-        <v>182934.3479947675</v>
+        <v>182934.3479947677</v>
       </c>
       <c r="P2" t="n">
-        <v>182934.3479947675</v>
+        <v>182934.3479947676</v>
       </c>
     </row>
     <row r="3">
@@ -26380,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>22984.35541070503</v>
+        <v>77524.4546895361</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>542247.7425310889</v>
+        <v>489424.7429247946</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.364179974596481e-10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3324.277399447962</v>
+        <v>11212.53078556751</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26300.98007520668</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="C4" t="n">
-        <v>26300.98007520668</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="D4" t="n">
-        <v>26300.98007520668</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="E4" t="n">
         <v>11687.44518665505</v>
@@ -26432,16 +26432,16 @@
         <v>11687.44518665505</v>
       </c>
       <c r="G4" t="n">
-        <v>10647.59259714889</v>
+        <v>8122.040986563781</v>
       </c>
       <c r="H4" t="n">
-        <v>10647.59259714889</v>
+        <v>8122.040986563782</v>
       </c>
       <c r="I4" t="n">
         <v>10950.7356662364</v>
       </c>
       <c r="J4" t="n">
-        <v>10950.73566623638</v>
+        <v>10950.73566623639</v>
       </c>
       <c r="K4" t="n">
         <v>10950.7356662364</v>
@@ -26453,7 +26453,7 @@
         <v>10950.7356662364</v>
       </c>
       <c r="N4" t="n">
-        <v>10950.73566623641</v>
+        <v>10950.73566623639</v>
       </c>
       <c r="O4" t="n">
         <v>10950.7356662364</v>
@@ -26484,13 +26484,13 @@
         <v>3326.833140245338</v>
       </c>
       <c r="G5" t="n">
-        <v>4705.005504270726</v>
+        <v>7975.302026150882</v>
       </c>
       <c r="H5" t="n">
-        <v>4705.005504270726</v>
+        <v>7975.302026150882</v>
       </c>
       <c r="I5" t="n">
-        <v>48519.05682781737</v>
+        <v>48519.05682781735</v>
       </c>
       <c r="J5" t="n">
         <v>48519.05682781737</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3569.337056906661</v>
+        <v>-4996.930551051562</v>
       </c>
       <c r="C6" t="n">
-        <v>-3569.337056906676</v>
+        <v>-4996.930551051577</v>
       </c>
       <c r="D6" t="n">
-        <v>-3569.337056906676</v>
+        <v>-4996.930551051577</v>
       </c>
       <c r="E6" t="n">
-        <v>-77609.41296781907</v>
+        <v>-79012.66936948644</v>
       </c>
       <c r="F6" t="n">
-        <v>44995.5285630307</v>
+        <v>43592.27216136333</v>
       </c>
       <c r="G6" t="n">
-        <v>25016.91461625925</v>
+        <v>-23786.03953315974</v>
       </c>
       <c r="H6" t="n">
-        <v>48001.27002696431</v>
+        <v>53738.41515637636</v>
       </c>
       <c r="I6" t="n">
-        <v>-418783.187030375</v>
+        <v>-366543.9468850492</v>
       </c>
       <c r="J6" t="n">
-        <v>123464.5555007139</v>
+        <v>122880.7960397451</v>
       </c>
       <c r="K6" t="n">
-        <v>123464.5555007141</v>
+        <v>122880.7960397455</v>
       </c>
       <c r="L6" t="n">
-        <v>123464.5555007138</v>
+        <v>122880.7960397454</v>
       </c>
       <c r="M6" t="n">
-        <v>123464.5555007138</v>
+        <v>122880.7960397455</v>
       </c>
       <c r="N6" t="n">
-        <v>123464.5555007137</v>
+        <v>122880.7960397454</v>
       </c>
       <c r="O6" t="n">
-        <v>120140.2781012658</v>
+        <v>111668.2652541779</v>
       </c>
       <c r="P6" t="n">
-        <v>123464.5555007138</v>
+        <v>122880.7960397454</v>
       </c>
     </row>
   </sheetData>
@@ -26752,34 +26752,34 @@
         <v>152.6070247818962</v>
       </c>
       <c r="G3" t="n">
-        <v>177.2996964620731</v>
+        <v>235.8934982386143</v>
       </c>
       <c r="H3" t="n">
-        <v>177.2996964620731</v>
+        <v>235.8934982386143</v>
       </c>
       <c r="I3" t="n">
-        <v>710.6385420181462</v>
+        <v>710.6385420181458</v>
       </c>
       <c r="J3" t="n">
-        <v>710.6385420181464</v>
+        <v>710.6385420181463</v>
       </c>
       <c r="K3" t="n">
-        <v>710.6385420181462</v>
+        <v>710.6385420181463</v>
       </c>
       <c r="L3" t="n">
-        <v>710.6385420181462</v>
+        <v>710.6385420181463</v>
       </c>
       <c r="M3" t="n">
-        <v>710.6385420181462</v>
+        <v>710.6385420181463</v>
       </c>
       <c r="N3" t="n">
-        <v>710.6385420181462</v>
+        <v>710.6385420181463</v>
       </c>
       <c r="O3" t="n">
-        <v>710.6385420181462</v>
+        <v>710.6385420181463</v>
       </c>
       <c r="P3" t="n">
-        <v>710.6385420181462</v>
+        <v>710.6385420181463</v>
       </c>
     </row>
     <row r="4">
@@ -26804,13 +26804,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>13.81368620719627</v>
+        <v>46.59249612745214</v>
       </c>
       <c r="H4" t="n">
-        <v>13.81368620719627</v>
+        <v>46.59249612745214</v>
       </c>
       <c r="I4" t="n">
-        <v>543.2094837470687</v>
+        <v>543.2094837470685</v>
       </c>
       <c r="J4" t="n">
         <v>543.2094837470687</v>
@@ -26819,19 +26819,19 @@
         <v>543.2094837470687</v>
       </c>
       <c r="L4" t="n">
+        <v>543.2094837470688</v>
+      </c>
+      <c r="M4" t="n">
+        <v>543.2094837470688</v>
+      </c>
+      <c r="N4" t="n">
         <v>543.2094837470687</v>
       </c>
-      <c r="M4" t="n">
-        <v>543.2094837470687</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>543.2094837470688</v>
       </c>
-      <c r="O4" t="n">
-        <v>543.2094837470687</v>
-      </c>
       <c r="P4" t="n">
-        <v>543.2094837470687</v>
+        <v>543.2094837470688</v>
       </c>
     </row>
   </sheetData>
@@ -26974,16 +26974,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>24.69267168017683</v>
+        <v>83.28647345671808</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>533.3388455560731</v>
+        <v>474.7450437795315</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>13.81368620719627</v>
+        <v>46.59249612745214</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>529.3957975398724</v>
+        <v>496.6169876196163</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>13.81368620719616</v>
+        <v>46.59249612745225</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>13.81368620719627</v>
+        <v>46.59249612745214</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,22 +31752,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6134955770126477</v>
+        <v>0.6134955770126478</v>
       </c>
       <c r="H11" t="n">
-        <v>6.28296157808078</v>
+        <v>6.282961578080781</v>
       </c>
       <c r="I11" t="n">
-        <v>23.65178823278012</v>
+        <v>23.65178823278013</v>
       </c>
       <c r="J11" t="n">
-        <v>52.06967022947725</v>
+        <v>52.06967022947726</v>
       </c>
       <c r="K11" t="n">
         <v>78.03893800442265</v>
       </c>
       <c r="L11" t="n">
-        <v>96.81420326942349</v>
+        <v>96.8142032694235</v>
       </c>
       <c r="M11" t="n">
         <v>107.7244552371222</v>
@@ -31779,7 +31779,7 @@
         <v>103.3671029013898</v>
       </c>
       <c r="P11" t="n">
-        <v>88.22143084389008</v>
+        <v>88.22143084389009</v>
       </c>
       <c r="Q11" t="n">
         <v>66.25062049212461</v>
@@ -31843,13 +31843,13 @@
         <v>31.01233887572479</v>
       </c>
       <c r="K12" t="n">
-        <v>53.00502671127428</v>
+        <v>53.00502671127429</v>
       </c>
       <c r="L12" t="n">
         <v>71.27179963988466</v>
       </c>
       <c r="M12" t="n">
-        <v>83.17082850613343</v>
+        <v>83.17082850613345</v>
       </c>
       <c r="N12" t="n">
         <v>85.37211285416666</v>
@@ -31867,7 +31867,7 @@
         <v>20.38023625294834</v>
       </c>
       <c r="S12" t="n">
-        <v>6.097082546710661</v>
+        <v>6.097082546710663</v>
       </c>
       <c r="T12" t="n">
         <v>1.323074111080779</v>
@@ -31925,7 +31925,7 @@
         <v>31.97242256905956</v>
       </c>
       <c r="L13" t="n">
-        <v>40.91369316857592</v>
+        <v>40.91369316857593</v>
       </c>
       <c r="M13" t="n">
         <v>43.13775292318419</v>
@@ -31934,10 +31934,10 @@
         <v>42.11203357628952</v>
       </c>
       <c r="O13" t="n">
-        <v>38.8972790378512</v>
+        <v>38.89727903785121</v>
       </c>
       <c r="P13" t="n">
-        <v>33.28334192948109</v>
+        <v>33.2833419294811</v>
       </c>
       <c r="Q13" t="n">
         <v>23.04366074206633</v>
@@ -31946,7 +31946,7 @@
         <v>12.3736777798567</v>
       </c>
       <c r="S13" t="n">
-        <v>4.795863385358933</v>
+        <v>4.795863385358934</v>
       </c>
       <c r="T13" t="n">
         <v>1.175824617171987</v>
@@ -31989,22 +31989,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6134955770126477</v>
+        <v>0.6134955770126478</v>
       </c>
       <c r="H14" t="n">
-        <v>6.28296157808078</v>
+        <v>6.282961578080781</v>
       </c>
       <c r="I14" t="n">
-        <v>23.65178823278012</v>
+        <v>23.65178823278013</v>
       </c>
       <c r="J14" t="n">
-        <v>52.06967022947725</v>
+        <v>52.06967022947726</v>
       </c>
       <c r="K14" t="n">
         <v>78.03893800442265</v>
       </c>
       <c r="L14" t="n">
-        <v>96.81420326942349</v>
+        <v>96.8142032694235</v>
       </c>
       <c r="M14" t="n">
         <v>107.7244552371222</v>
@@ -32016,7 +32016,7 @@
         <v>103.3671029013898</v>
       </c>
       <c r="P14" t="n">
-        <v>88.22143084389008</v>
+        <v>88.22143084389009</v>
       </c>
       <c r="Q14" t="n">
         <v>66.25062049212461</v>
@@ -32080,13 +32080,13 @@
         <v>31.01233887572479</v>
       </c>
       <c r="K15" t="n">
-        <v>53.00502671127428</v>
+        <v>53.00502671127429</v>
       </c>
       <c r="L15" t="n">
         <v>71.27179963988466</v>
       </c>
       <c r="M15" t="n">
-        <v>83.17082850613343</v>
+        <v>83.17082850613345</v>
       </c>
       <c r="N15" t="n">
         <v>85.37211285416666</v>
@@ -32104,7 +32104,7 @@
         <v>20.38023625294834</v>
       </c>
       <c r="S15" t="n">
-        <v>6.097082546710661</v>
+        <v>6.097082546710663</v>
       </c>
       <c r="T15" t="n">
         <v>1.323074111080779</v>
@@ -32162,7 +32162,7 @@
         <v>31.97242256905956</v>
       </c>
       <c r="L16" t="n">
-        <v>40.91369316857592</v>
+        <v>40.91369316857593</v>
       </c>
       <c r="M16" t="n">
         <v>43.13775292318419</v>
@@ -32171,10 +32171,10 @@
         <v>42.11203357628952</v>
       </c>
       <c r="O16" t="n">
-        <v>38.8972790378512</v>
+        <v>38.89727903785121</v>
       </c>
       <c r="P16" t="n">
-        <v>33.28334192948109</v>
+        <v>33.2833419294811</v>
       </c>
       <c r="Q16" t="n">
         <v>23.04366074206633</v>
@@ -32183,7 +32183,7 @@
         <v>12.3736777798567</v>
       </c>
       <c r="S16" t="n">
-        <v>4.795863385358933</v>
+        <v>4.795863385358934</v>
       </c>
       <c r="T16" t="n">
         <v>1.175824617171987</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7127625988425043</v>
+        <v>0.948315570808499</v>
       </c>
       <c r="H17" t="n">
-        <v>7.299579965395798</v>
+        <v>9.711936839542544</v>
       </c>
       <c r="I17" t="n">
-        <v>27.47878009187567</v>
+        <v>36.5599360435947</v>
       </c>
       <c r="J17" t="n">
-        <v>60.49483462350905</v>
+        <v>80.48709867790792</v>
       </c>
       <c r="K17" t="n">
-        <v>90.66607543251227</v>
+        <v>120.6292967902317</v>
       </c>
       <c r="L17" t="n">
-        <v>112.4792838168386</v>
+        <v>149.6513094403623</v>
       </c>
       <c r="M17" t="n">
-        <v>125.154875684004</v>
+        <v>166.515916472728</v>
       </c>
       <c r="N17" t="n">
-        <v>127.1800124179652</v>
+        <v>169.2103180882876</v>
       </c>
       <c r="O17" t="n">
-        <v>120.0924793257251</v>
+        <v>159.7805051310606</v>
       </c>
       <c r="P17" t="n">
-        <v>102.4961526668007</v>
+        <v>136.3689644767258</v>
       </c>
       <c r="Q17" t="n">
-        <v>76.97034209575354</v>
+        <v>102.4074130971464</v>
       </c>
       <c r="R17" t="n">
-        <v>44.7730735995405</v>
+        <v>59.56962797479943</v>
       </c>
       <c r="S17" t="n">
-        <v>16.24207772112358</v>
+        <v>21.60974106979869</v>
       </c>
       <c r="T17" t="n">
-        <v>3.120118276433064</v>
+        <v>4.151251411214207</v>
       </c>
       <c r="U17" t="n">
-        <v>0.05702100790740033</v>
+        <v>0.07586524566467991</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.381361611258044</v>
+        <v>0.5073935622490949</v>
       </c>
       <c r="H18" t="n">
-        <v>3.683150298202688</v>
+        <v>4.900353614353102</v>
       </c>
       <c r="I18" t="n">
-        <v>13.13021337006862</v>
+        <v>17.46947133182191</v>
       </c>
       <c r="J18" t="n">
-        <v>36.03030907065582</v>
+        <v>47.93756458073577</v>
       </c>
       <c r="K18" t="n">
-        <v>61.58153702494476</v>
+        <v>81.93293325142513</v>
       </c>
       <c r="L18" t="n">
-        <v>82.80397616372574</v>
+        <v>110.1689399085151</v>
       </c>
       <c r="M18" t="n">
-        <v>96.62833457182981</v>
+        <v>128.5619565400448</v>
       </c>
       <c r="N18" t="n">
-        <v>99.18579906136293</v>
+        <v>131.9646089816188</v>
       </c>
       <c r="O18" t="n">
-        <v>90.73562862243469</v>
+        <v>120.721835839152</v>
       </c>
       <c r="P18" t="n">
-        <v>72.82334136382771</v>
+        <v>96.88991628596973</v>
       </c>
       <c r="Q18" t="n">
-        <v>48.68047514936014</v>
+        <v>64.76834313902482</v>
       </c>
       <c r="R18" t="n">
-        <v>23.6778726709161</v>
+        <v>31.50290906665873</v>
       </c>
       <c r="S18" t="n">
-        <v>7.083624665253574</v>
+        <v>9.424612877740858</v>
       </c>
       <c r="T18" t="n">
-        <v>1.537154915553256</v>
+        <v>2.04515212152157</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02508957968802922</v>
+        <v>0.03338115541112468</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.319720764111935</v>
+        <v>0.4253817181352061</v>
       </c>
       <c r="H19" t="n">
-        <v>2.842608248195206</v>
+        <v>3.782030184874835</v>
       </c>
       <c r="I19" t="n">
-        <v>9.614875342566194</v>
+        <v>12.7923883962842</v>
       </c>
       <c r="J19" t="n">
-        <v>22.6042580227138</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>37.14573968500481</v>
+        <v>49.42162143425394</v>
       </c>
       <c r="L19" t="n">
-        <v>47.53375796624169</v>
+        <v>63.24266016711965</v>
       </c>
       <c r="M19" t="n">
-        <v>50.11768305074632</v>
+        <v>66.6805178709578</v>
       </c>
       <c r="N19" t="n">
-        <v>48.92599656632914</v>
+        <v>65.09500419427208</v>
       </c>
       <c r="O19" t="n">
-        <v>45.19107673102152</v>
+        <v>60.12577230514715</v>
       </c>
       <c r="P19" t="n">
-        <v>38.66877314313801</v>
+        <v>51.4479852551889</v>
       </c>
       <c r="Q19" t="n">
-        <v>26.77225416577303</v>
+        <v>35.61991823403076</v>
       </c>
       <c r="R19" t="n">
-        <v>14.375808175433</v>
+        <v>19.12670888997026</v>
       </c>
       <c r="S19" t="n">
-        <v>5.571860952750719</v>
+        <v>7.413243215138089</v>
       </c>
       <c r="T19" t="n">
-        <v>1.366079628478267</v>
+        <v>1.81754006839588</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01743931440610556</v>
+        <v>0.02320263917101127</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7127625988425043</v>
+        <v>0.948315570808499</v>
       </c>
       <c r="H20" t="n">
-        <v>7.299579965395798</v>
+        <v>9.711936839542544</v>
       </c>
       <c r="I20" t="n">
-        <v>27.47878009187567</v>
+        <v>36.5599360435947</v>
       </c>
       <c r="J20" t="n">
-        <v>60.49483462350905</v>
+        <v>80.48709867790792</v>
       </c>
       <c r="K20" t="n">
-        <v>90.66607543251227</v>
+        <v>120.6292967902317</v>
       </c>
       <c r="L20" t="n">
-        <v>112.4792838168386</v>
+        <v>149.6513094403623</v>
       </c>
       <c r="M20" t="n">
-        <v>125.154875684004</v>
+        <v>166.515916472728</v>
       </c>
       <c r="N20" t="n">
-        <v>127.1800124179652</v>
+        <v>169.2103180882876</v>
       </c>
       <c r="O20" t="n">
-        <v>120.0924793257251</v>
+        <v>159.7805051310606</v>
       </c>
       <c r="P20" t="n">
-        <v>102.4961526668007</v>
+        <v>136.3689644767258</v>
       </c>
       <c r="Q20" t="n">
-        <v>76.97034209575354</v>
+        <v>102.4074130971464</v>
       </c>
       <c r="R20" t="n">
-        <v>44.7730735995405</v>
+        <v>59.56962797479943</v>
       </c>
       <c r="S20" t="n">
-        <v>16.24207772112358</v>
+        <v>21.60974106979869</v>
       </c>
       <c r="T20" t="n">
-        <v>3.120118276433064</v>
+        <v>4.151251411214207</v>
       </c>
       <c r="U20" t="n">
-        <v>0.05702100790740033</v>
+        <v>0.07586524566467991</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.381361611258044</v>
+        <v>0.5073935622490949</v>
       </c>
       <c r="H21" t="n">
-        <v>3.683150298202688</v>
+        <v>4.900353614353102</v>
       </c>
       <c r="I21" t="n">
-        <v>13.13021337006862</v>
+        <v>17.46947133182191</v>
       </c>
       <c r="J21" t="n">
-        <v>36.03030907065582</v>
+        <v>47.93756458073577</v>
       </c>
       <c r="K21" t="n">
-        <v>61.58153702494476</v>
+        <v>81.93293325142513</v>
       </c>
       <c r="L21" t="n">
-        <v>82.80397616372574</v>
+        <v>110.1689399085151</v>
       </c>
       <c r="M21" t="n">
-        <v>96.62833457182981</v>
+        <v>128.5619565400448</v>
       </c>
       <c r="N21" t="n">
-        <v>99.18579906136293</v>
+        <v>131.9646089816188</v>
       </c>
       <c r="O21" t="n">
-        <v>90.73562862243469</v>
+        <v>120.721835839152</v>
       </c>
       <c r="P21" t="n">
-        <v>72.82334136382771</v>
+        <v>96.88991628596973</v>
       </c>
       <c r="Q21" t="n">
-        <v>48.68047514936014</v>
+        <v>64.76834313902482</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67787267091611</v>
+        <v>31.50290906665873</v>
       </c>
       <c r="S21" t="n">
-        <v>7.083624665253574</v>
+        <v>9.424612877740858</v>
       </c>
       <c r="T21" t="n">
-        <v>1.537154915553256</v>
+        <v>2.04515212152157</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02508957968802922</v>
+        <v>0.03338115541112468</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.319720764111935</v>
+        <v>0.4253817181352061</v>
       </c>
       <c r="H22" t="n">
-        <v>2.842608248195206</v>
+        <v>3.782030184874835</v>
       </c>
       <c r="I22" t="n">
-        <v>9.614875342566194</v>
+        <v>12.7923883962842</v>
       </c>
       <c r="J22" t="n">
-        <v>22.6042580227138</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>37.14573968500481</v>
+        <v>49.42162143425394</v>
       </c>
       <c r="L22" t="n">
-        <v>47.53375796624169</v>
+        <v>63.24266016711965</v>
       </c>
       <c r="M22" t="n">
-        <v>50.11768305074632</v>
+        <v>66.6805178709578</v>
       </c>
       <c r="N22" t="n">
-        <v>48.92599656632914</v>
+        <v>65.09500419427208</v>
       </c>
       <c r="O22" t="n">
-        <v>45.19107673102152</v>
+        <v>60.12577230514715</v>
       </c>
       <c r="P22" t="n">
-        <v>38.66877314313801</v>
+        <v>51.4479852551889</v>
       </c>
       <c r="Q22" t="n">
-        <v>26.77225416577303</v>
+        <v>35.61991823403076</v>
       </c>
       <c r="R22" t="n">
-        <v>14.375808175433</v>
+        <v>19.12670888997026</v>
       </c>
       <c r="S22" t="n">
-        <v>5.571860952750719</v>
+        <v>7.413243215138089</v>
       </c>
       <c r="T22" t="n">
-        <v>1.366079628478267</v>
+        <v>1.81754006839588</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01743931440610556</v>
+        <v>0.02320263917101127</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.856838359871942</v>
+        <v>2.856838359871941</v>
       </c>
       <c r="H23" t="n">
-        <v>29.25759585303853</v>
+        <v>29.25759585303852</v>
       </c>
       <c r="I23" t="n">
-        <v>110.1382608689632</v>
+        <v>110.1382608689631</v>
       </c>
       <c r="J23" t="n">
-        <v>242.4705847461815</v>
+        <v>242.4705847461813</v>
       </c>
       <c r="K23" t="n">
-        <v>363.4005525195608</v>
+        <v>363.4005525195607</v>
       </c>
       <c r="L23" t="n">
-        <v>450.8305194754919</v>
+        <v>450.8305194754917</v>
       </c>
       <c r="M23" t="n">
-        <v>501.6358186578645</v>
+        <v>501.6358186578643</v>
       </c>
       <c r="N23" t="n">
-        <v>509.7528106478507</v>
+        <v>509.7528106478505</v>
       </c>
       <c r="O23" t="n">
-        <v>481.3451242068741</v>
+        <v>481.3451242068738</v>
       </c>
       <c r="P23" t="n">
-        <v>410.8169271975354</v>
+        <v>410.8169271975352</v>
       </c>
       <c r="Q23" t="n">
-        <v>308.5064034346214</v>
+        <v>308.5064034346212</v>
       </c>
       <c r="R23" t="n">
         <v>179.455872623306</v>
       </c>
       <c r="S23" t="n">
-        <v>65.10020412558195</v>
+        <v>65.10020412558191</v>
       </c>
       <c r="T23" t="n">
         <v>12.50580992033943</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2285470687897553</v>
+        <v>0.2285470687897552</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>1.528543279057899</v>
       </c>
       <c r="H24" t="n">
-        <v>14.76251008984866</v>
+        <v>14.76251008984865</v>
       </c>
       <c r="I24" t="n">
-        <v>52.62747693247593</v>
+        <v>52.6274769324759</v>
       </c>
       <c r="J24" t="n">
-        <v>144.4138191850273</v>
+        <v>144.4138191850272</v>
       </c>
       <c r="K24" t="n">
-        <v>246.8262188819065</v>
+        <v>246.8262188819064</v>
       </c>
       <c r="L24" t="n">
-        <v>331.8883115340408</v>
+        <v>331.8883115340407</v>
       </c>
       <c r="M24" t="n">
-        <v>387.2980053998896</v>
+        <v>387.2980053998894</v>
       </c>
       <c r="N24" t="n">
-        <v>397.548631161642</v>
+        <v>397.5486311616418</v>
       </c>
       <c r="O24" t="n">
-        <v>363.6793300835696</v>
+        <v>363.6793300835694</v>
       </c>
       <c r="P24" t="n">
-        <v>291.8847249281703</v>
+        <v>291.8847249281702</v>
       </c>
       <c r="Q24" t="n">
-        <v>195.1172087443031</v>
+        <v>195.117208744303</v>
       </c>
       <c r="R24" t="n">
-        <v>94.90376604536681</v>
+        <v>94.90376604536675</v>
       </c>
       <c r="S24" t="n">
-        <v>28.39202099478157</v>
+        <v>28.39202099478156</v>
       </c>
       <c r="T24" t="n">
-        <v>6.161102076553548</v>
+        <v>6.161102076553545</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1005620578327566</v>
+        <v>0.1005620578327565</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,46 +32861,46 @@
         <v>1.281479338065509</v>
       </c>
       <c r="H25" t="n">
-        <v>11.39351629661881</v>
+        <v>11.3935162966188</v>
       </c>
       <c r="I25" t="n">
-        <v>38.53757863927915</v>
+        <v>38.53757863927913</v>
       </c>
       <c r="J25" t="n">
-        <v>90.6005892012315</v>
+        <v>90.60058920123146</v>
       </c>
       <c r="K25" t="n">
-        <v>148.8845994588837</v>
+        <v>148.8845994588836</v>
       </c>
       <c r="L25" t="n">
-        <v>190.5210281338486</v>
+        <v>190.5210281338485</v>
       </c>
       <c r="M25" t="n">
-        <v>200.8777111478507</v>
+        <v>200.8777111478506</v>
       </c>
       <c r="N25" t="n">
-        <v>196.1012881605158</v>
+        <v>196.1012881605157</v>
       </c>
       <c r="O25" t="n">
-        <v>181.1312795294777</v>
+        <v>181.1312795294776</v>
       </c>
       <c r="P25" t="n">
-        <v>154.9891010329412</v>
+        <v>154.9891010329411</v>
       </c>
       <c r="Q25" t="n">
-        <v>107.3064198447401</v>
+        <v>107.30641984474</v>
       </c>
       <c r="R25" t="n">
-        <v>57.61997096429098</v>
+        <v>57.61997096429095</v>
       </c>
       <c r="S25" t="n">
-        <v>22.33268991883255</v>
+        <v>22.33268991883254</v>
       </c>
       <c r="T25" t="n">
-        <v>5.475411717188993</v>
+        <v>5.47541171718899</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06989887298539149</v>
+        <v>0.06989887298539146</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32949,22 +32949,22 @@
         <v>242.4705847461815</v>
       </c>
       <c r="K26" t="n">
-        <v>363.400552519561</v>
+        <v>363.4005525195609</v>
       </c>
       <c r="L26" t="n">
-        <v>450.8305194754921</v>
+        <v>450.830519475492</v>
       </c>
       <c r="M26" t="n">
-        <v>501.6358186578647</v>
+        <v>501.6358186578646</v>
       </c>
       <c r="N26" t="n">
-        <v>509.7528106478509</v>
+        <v>509.7528106478508</v>
       </c>
       <c r="O26" t="n">
         <v>481.3451242068742</v>
       </c>
       <c r="P26" t="n">
-        <v>410.8169271975356</v>
+        <v>410.8169271975355</v>
       </c>
       <c r="Q26" t="n">
         <v>308.5064034346215</v>
@@ -32973,7 +32973,7 @@
         <v>179.4558726233061</v>
       </c>
       <c r="S26" t="n">
-        <v>65.10020412558197</v>
+        <v>65.10020412558195</v>
       </c>
       <c r="T26" t="n">
         <v>12.50580992033944</v>
@@ -33019,7 +33019,7 @@
         <v>1.5285432790579</v>
       </c>
       <c r="H27" t="n">
-        <v>14.76251008984867</v>
+        <v>14.76251008984866</v>
       </c>
       <c r="I27" t="n">
         <v>52.62747693247594</v>
@@ -33028,34 +33028,34 @@
         <v>144.4138191850273</v>
       </c>
       <c r="K27" t="n">
-        <v>246.8262188819066</v>
+        <v>246.8262188819065</v>
       </c>
       <c r="L27" t="n">
-        <v>331.888311534041</v>
+        <v>331.8883115340409</v>
       </c>
       <c r="M27" t="n">
         <v>387.2980053998897</v>
       </c>
       <c r="N27" t="n">
-        <v>397.5486311616421</v>
+        <v>397.548631161642</v>
       </c>
       <c r="O27" t="n">
         <v>363.6793300835697</v>
       </c>
       <c r="P27" t="n">
-        <v>291.8847249281704</v>
+        <v>291.8847249281703</v>
       </c>
       <c r="Q27" t="n">
-        <v>195.1172087443032</v>
+        <v>195.1172087443031</v>
       </c>
       <c r="R27" t="n">
-        <v>94.90376604536684</v>
+        <v>94.90376604536682</v>
       </c>
       <c r="S27" t="n">
-        <v>28.39202099478159</v>
+        <v>28.39202099478158</v>
       </c>
       <c r="T27" t="n">
-        <v>6.16110207655355</v>
+        <v>6.161102076553549</v>
       </c>
       <c r="U27" t="n">
         <v>0.1005620578327566</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.28147933806551</v>
+        <v>1.281479338065509</v>
       </c>
       <c r="H28" t="n">
         <v>11.39351629661881</v>
       </c>
       <c r="I28" t="n">
-        <v>38.53757863927916</v>
+        <v>38.53757863927915</v>
       </c>
       <c r="J28" t="n">
-        <v>90.60058920123153</v>
+        <v>90.60058920123151</v>
       </c>
       <c r="K28" t="n">
         <v>148.8845994588837</v>
@@ -33119,7 +33119,7 @@
         <v>196.1012881605158</v>
       </c>
       <c r="O28" t="n">
-        <v>181.1312795294778</v>
+        <v>181.1312795294777</v>
       </c>
       <c r="P28" t="n">
         <v>154.9891010329412</v>
@@ -33131,13 +33131,13 @@
         <v>57.61997096429099</v>
       </c>
       <c r="S28" t="n">
-        <v>22.33268991883256</v>
+        <v>22.33268991883255</v>
       </c>
       <c r="T28" t="n">
-        <v>5.475411717188995</v>
+        <v>5.475411717188994</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06989887298539152</v>
+        <v>0.06989887298539151</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.856838359871942</v>
+        <v>2.856838359871943</v>
       </c>
       <c r="H29" t="n">
-        <v>29.25759585303853</v>
+        <v>29.25759585303854</v>
       </c>
       <c r="I29" t="n">
         <v>110.1382608689632</v>
@@ -33186,37 +33186,37 @@
         <v>242.4705847461815</v>
       </c>
       <c r="K29" t="n">
-        <v>363.4005525195608</v>
+        <v>363.4005525195609</v>
       </c>
       <c r="L29" t="n">
-        <v>450.8305194754919</v>
+        <v>450.830519475492</v>
       </c>
       <c r="M29" t="n">
-        <v>501.6358186578645</v>
+        <v>501.6358186578646</v>
       </c>
       <c r="N29" t="n">
-        <v>509.7528106478507</v>
+        <v>509.7528106478508</v>
       </c>
       <c r="O29" t="n">
-        <v>481.3451242068741</v>
+        <v>481.3451242068742</v>
       </c>
       <c r="P29" t="n">
-        <v>410.8169271975354</v>
+        <v>410.8169271975355</v>
       </c>
       <c r="Q29" t="n">
-        <v>308.5064034346214</v>
+        <v>308.5064034346215</v>
       </c>
       <c r="R29" t="n">
-        <v>179.455872623306</v>
+        <v>179.4558726233061</v>
       </c>
       <c r="S29" t="n">
         <v>65.10020412558195</v>
       </c>
       <c r="T29" t="n">
-        <v>12.50580992033943</v>
+        <v>12.50580992033944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2285470687897553</v>
+        <v>0.2285470687897554</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,13 +33253,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.528543279057899</v>
+        <v>1.5285432790579</v>
       </c>
       <c r="H30" t="n">
         <v>14.76251008984866</v>
       </c>
       <c r="I30" t="n">
-        <v>52.62747693247593</v>
+        <v>52.62747693247594</v>
       </c>
       <c r="J30" t="n">
         <v>144.4138191850273</v>
@@ -33268,16 +33268,16 @@
         <v>246.8262188819065</v>
       </c>
       <c r="L30" t="n">
-        <v>331.8883115340408</v>
+        <v>331.8883115340409</v>
       </c>
       <c r="M30" t="n">
-        <v>387.2980053998896</v>
+        <v>387.2980053998897</v>
       </c>
       <c r="N30" t="n">
         <v>397.548631161642</v>
       </c>
       <c r="O30" t="n">
-        <v>363.6793300835696</v>
+        <v>363.6793300835697</v>
       </c>
       <c r="P30" t="n">
         <v>291.8847249281703</v>
@@ -33286,13 +33286,13 @@
         <v>195.1172087443031</v>
       </c>
       <c r="R30" t="n">
-        <v>94.90376604536681</v>
+        <v>94.90376604536682</v>
       </c>
       <c r="S30" t="n">
-        <v>28.39202099478157</v>
+        <v>28.39202099478158</v>
       </c>
       <c r="T30" t="n">
-        <v>6.161102076553548</v>
+        <v>6.161102076553549</v>
       </c>
       <c r="U30" t="n">
         <v>0.1005620578327566</v>
@@ -33341,7 +33341,7 @@
         <v>38.53757863927915</v>
       </c>
       <c r="J31" t="n">
-        <v>90.6005892012315</v>
+        <v>90.60058920123151</v>
       </c>
       <c r="K31" t="n">
         <v>148.8845994588837</v>
@@ -33365,16 +33365,16 @@
         <v>107.3064198447401</v>
       </c>
       <c r="R31" t="n">
-        <v>57.61997096429098</v>
+        <v>57.61997096429099</v>
       </c>
       <c r="S31" t="n">
         <v>22.33268991883255</v>
       </c>
       <c r="T31" t="n">
-        <v>5.475411717188993</v>
+        <v>5.475411717188994</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06989887298539149</v>
+        <v>0.06989887298539151</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.856838359871942</v>
+        <v>2.856838359871943</v>
       </c>
       <c r="H32" t="n">
-        <v>29.25759585303853</v>
+        <v>29.25759585303854</v>
       </c>
       <c r="I32" t="n">
         <v>110.1382608689632</v>
@@ -33423,37 +33423,37 @@
         <v>242.4705847461815</v>
       </c>
       <c r="K32" t="n">
-        <v>363.4005525195608</v>
+        <v>363.4005525195609</v>
       </c>
       <c r="L32" t="n">
-        <v>450.8305194754919</v>
+        <v>450.830519475492</v>
       </c>
       <c r="M32" t="n">
-        <v>501.6358186578645</v>
+        <v>501.6358186578646</v>
       </c>
       <c r="N32" t="n">
-        <v>509.7528106478507</v>
+        <v>509.7528106478508</v>
       </c>
       <c r="O32" t="n">
-        <v>481.3451242068741</v>
+        <v>481.3451242068742</v>
       </c>
       <c r="P32" t="n">
-        <v>410.8169271975354</v>
+        <v>410.8169271975355</v>
       </c>
       <c r="Q32" t="n">
-        <v>308.5064034346214</v>
+        <v>308.5064034346215</v>
       </c>
       <c r="R32" t="n">
-        <v>179.455872623306</v>
+        <v>179.4558726233061</v>
       </c>
       <c r="S32" t="n">
         <v>65.10020412558195</v>
       </c>
       <c r="T32" t="n">
-        <v>12.50580992033943</v>
+        <v>12.50580992033944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2285470687897553</v>
+        <v>0.2285470687897554</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,13 +33490,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.528543279057899</v>
+        <v>1.5285432790579</v>
       </c>
       <c r="H33" t="n">
         <v>14.76251008984866</v>
       </c>
       <c r="I33" t="n">
-        <v>52.62747693247593</v>
+        <v>52.62747693247594</v>
       </c>
       <c r="J33" t="n">
         <v>144.4138191850273</v>
@@ -33505,16 +33505,16 @@
         <v>246.8262188819065</v>
       </c>
       <c r="L33" t="n">
-        <v>331.8883115340408</v>
+        <v>331.8883115340409</v>
       </c>
       <c r="M33" t="n">
-        <v>387.2980053998896</v>
+        <v>387.2980053998897</v>
       </c>
       <c r="N33" t="n">
         <v>397.548631161642</v>
       </c>
       <c r="O33" t="n">
-        <v>363.6793300835696</v>
+        <v>363.6793300835697</v>
       </c>
       <c r="P33" t="n">
         <v>291.8847249281703</v>
@@ -33523,13 +33523,13 @@
         <v>195.1172087443031</v>
       </c>
       <c r="R33" t="n">
-        <v>94.90376604536681</v>
+        <v>94.90376604536682</v>
       </c>
       <c r="S33" t="n">
-        <v>28.39202099478157</v>
+        <v>28.39202099478158</v>
       </c>
       <c r="T33" t="n">
-        <v>6.161102076553548</v>
+        <v>6.161102076553549</v>
       </c>
       <c r="U33" t="n">
         <v>0.1005620578327566</v>
@@ -33578,7 +33578,7 @@
         <v>38.53757863927915</v>
       </c>
       <c r="J34" t="n">
-        <v>90.6005892012315</v>
+        <v>90.60058920123151</v>
       </c>
       <c r="K34" t="n">
         <v>148.8845994588837</v>
@@ -33602,16 +33602,16 @@
         <v>107.3064198447401</v>
       </c>
       <c r="R34" t="n">
-        <v>57.61997096429098</v>
+        <v>57.61997096429099</v>
       </c>
       <c r="S34" t="n">
         <v>22.33268991883255</v>
       </c>
       <c r="T34" t="n">
-        <v>5.475411717188993</v>
+        <v>5.475411717188994</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06989887298539149</v>
+        <v>0.06989887298539151</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.856838359871942</v>
+        <v>2.856838359871943</v>
       </c>
       <c r="H35" t="n">
-        <v>29.25759585303853</v>
+        <v>29.25759585303854</v>
       </c>
       <c r="I35" t="n">
         <v>110.1382608689632</v>
@@ -33660,37 +33660,37 @@
         <v>242.4705847461815</v>
       </c>
       <c r="K35" t="n">
-        <v>363.4005525195608</v>
+        <v>363.4005525195609</v>
       </c>
       <c r="L35" t="n">
-        <v>450.8305194754919</v>
+        <v>450.830519475492</v>
       </c>
       <c r="M35" t="n">
-        <v>501.6358186578645</v>
+        <v>501.6358186578646</v>
       </c>
       <c r="N35" t="n">
-        <v>509.7528106478507</v>
+        <v>509.7528106478508</v>
       </c>
       <c r="O35" t="n">
-        <v>481.3451242068741</v>
+        <v>481.3451242068742</v>
       </c>
       <c r="P35" t="n">
-        <v>410.8169271975354</v>
+        <v>410.8169271975355</v>
       </c>
       <c r="Q35" t="n">
-        <v>308.5064034346214</v>
+        <v>308.5064034346215</v>
       </c>
       <c r="R35" t="n">
-        <v>179.455872623306</v>
+        <v>179.4558726233061</v>
       </c>
       <c r="S35" t="n">
         <v>65.10020412558195</v>
       </c>
       <c r="T35" t="n">
-        <v>12.50580992033943</v>
+        <v>12.50580992033944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2285470687897553</v>
+        <v>0.2285470687897554</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,13 +33727,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.528543279057899</v>
+        <v>1.5285432790579</v>
       </c>
       <c r="H36" t="n">
         <v>14.76251008984866</v>
       </c>
       <c r="I36" t="n">
-        <v>52.62747693247593</v>
+        <v>52.62747693247594</v>
       </c>
       <c r="J36" t="n">
         <v>144.4138191850273</v>
@@ -33742,16 +33742,16 @@
         <v>246.8262188819065</v>
       </c>
       <c r="L36" t="n">
-        <v>331.8883115340408</v>
+        <v>331.8883115340409</v>
       </c>
       <c r="M36" t="n">
-        <v>387.2980053998896</v>
+        <v>387.2980053998897</v>
       </c>
       <c r="N36" t="n">
         <v>397.548631161642</v>
       </c>
       <c r="O36" t="n">
-        <v>363.6793300835696</v>
+        <v>363.6793300835697</v>
       </c>
       <c r="P36" t="n">
         <v>291.8847249281703</v>
@@ -33760,13 +33760,13 @@
         <v>195.1172087443031</v>
       </c>
       <c r="R36" t="n">
-        <v>94.90376604536681</v>
+        <v>94.90376604536682</v>
       </c>
       <c r="S36" t="n">
-        <v>28.39202099478157</v>
+        <v>28.39202099478158</v>
       </c>
       <c r="T36" t="n">
-        <v>6.161102076553548</v>
+        <v>6.161102076553549</v>
       </c>
       <c r="U36" t="n">
         <v>0.1005620578327566</v>
@@ -33815,7 +33815,7 @@
         <v>38.53757863927915</v>
       </c>
       <c r="J37" t="n">
-        <v>90.6005892012315</v>
+        <v>90.60058920123151</v>
       </c>
       <c r="K37" t="n">
         <v>148.8845994588837</v>
@@ -33839,16 +33839,16 @@
         <v>107.3064198447401</v>
       </c>
       <c r="R37" t="n">
-        <v>57.61997096429098</v>
+        <v>57.61997096429099</v>
       </c>
       <c r="S37" t="n">
         <v>22.33268991883255</v>
       </c>
       <c r="T37" t="n">
-        <v>5.475411717188993</v>
+        <v>5.475411717188994</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06989887298539149</v>
+        <v>0.06989887298539151</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.856838359871942</v>
+        <v>2.856838359871943</v>
       </c>
       <c r="H38" t="n">
-        <v>29.25759585303853</v>
+        <v>29.25759585303854</v>
       </c>
       <c r="I38" t="n">
         <v>110.1382608689632</v>
@@ -33897,37 +33897,37 @@
         <v>242.4705847461815</v>
       </c>
       <c r="K38" t="n">
-        <v>363.4005525195608</v>
+        <v>363.4005525195609</v>
       </c>
       <c r="L38" t="n">
-        <v>450.8305194754919</v>
+        <v>450.830519475492</v>
       </c>
       <c r="M38" t="n">
-        <v>501.6358186578645</v>
+        <v>501.6358186578646</v>
       </c>
       <c r="N38" t="n">
-        <v>509.7528106478507</v>
+        <v>509.7528106478508</v>
       </c>
       <c r="O38" t="n">
-        <v>481.3451242068741</v>
+        <v>481.3451242068742</v>
       </c>
       <c r="P38" t="n">
-        <v>410.8169271975354</v>
+        <v>410.8169271975355</v>
       </c>
       <c r="Q38" t="n">
-        <v>308.5064034346214</v>
+        <v>308.5064034346215</v>
       </c>
       <c r="R38" t="n">
-        <v>179.455872623306</v>
+        <v>179.4558726233061</v>
       </c>
       <c r="S38" t="n">
         <v>65.10020412558195</v>
       </c>
       <c r="T38" t="n">
-        <v>12.50580992033943</v>
+        <v>12.50580992033944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2285470687897553</v>
+        <v>0.2285470687897554</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,13 +33964,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.528543279057899</v>
+        <v>1.5285432790579</v>
       </c>
       <c r="H39" t="n">
         <v>14.76251008984866</v>
       </c>
       <c r="I39" t="n">
-        <v>52.62747693247593</v>
+        <v>52.62747693247594</v>
       </c>
       <c r="J39" t="n">
         <v>144.4138191850273</v>
@@ -33979,16 +33979,16 @@
         <v>246.8262188819065</v>
       </c>
       <c r="L39" t="n">
-        <v>331.8883115340408</v>
+        <v>331.8883115340409</v>
       </c>
       <c r="M39" t="n">
-        <v>387.2980053998896</v>
+        <v>387.2980053998897</v>
       </c>
       <c r="N39" t="n">
         <v>397.548631161642</v>
       </c>
       <c r="O39" t="n">
-        <v>363.6793300835696</v>
+        <v>363.6793300835697</v>
       </c>
       <c r="P39" t="n">
         <v>291.8847249281703</v>
@@ -33997,13 +33997,13 @@
         <v>195.1172087443031</v>
       </c>
       <c r="R39" t="n">
-        <v>94.90376604536681</v>
+        <v>94.90376604536682</v>
       </c>
       <c r="S39" t="n">
-        <v>28.39202099478157</v>
+        <v>28.39202099478158</v>
       </c>
       <c r="T39" t="n">
-        <v>6.161102076553548</v>
+        <v>6.161102076553549</v>
       </c>
       <c r="U39" t="n">
         <v>0.1005620578327566</v>
@@ -34052,7 +34052,7 @@
         <v>38.53757863927915</v>
       </c>
       <c r="J40" t="n">
-        <v>90.6005892012315</v>
+        <v>90.60058920123151</v>
       </c>
       <c r="K40" t="n">
         <v>148.8845994588837</v>
@@ -34076,16 +34076,16 @@
         <v>107.3064198447401</v>
       </c>
       <c r="R40" t="n">
-        <v>57.61997096429098</v>
+        <v>57.61997096429099</v>
       </c>
       <c r="S40" t="n">
         <v>22.33268991883255</v>
       </c>
       <c r="T40" t="n">
-        <v>5.475411717188993</v>
+        <v>5.475411717188994</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06989887298539149</v>
+        <v>0.06989887298539151</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.856838359871942</v>
+        <v>2.856838359871943</v>
       </c>
       <c r="H41" t="n">
-        <v>29.25759585303853</v>
+        <v>29.25759585303854</v>
       </c>
       <c r="I41" t="n">
         <v>110.1382608689632</v>
@@ -34134,37 +34134,37 @@
         <v>242.4705847461815</v>
       </c>
       <c r="K41" t="n">
-        <v>363.4005525195608</v>
+        <v>363.4005525195609</v>
       </c>
       <c r="L41" t="n">
-        <v>450.8305194754919</v>
+        <v>450.830519475492</v>
       </c>
       <c r="M41" t="n">
-        <v>501.6358186578645</v>
+        <v>501.6358186578646</v>
       </c>
       <c r="N41" t="n">
-        <v>509.7528106478507</v>
+        <v>509.7528106478508</v>
       </c>
       <c r="O41" t="n">
-        <v>481.3451242068741</v>
+        <v>481.3451242068742</v>
       </c>
       <c r="P41" t="n">
-        <v>410.8169271975354</v>
+        <v>410.8169271975355</v>
       </c>
       <c r="Q41" t="n">
-        <v>308.5064034346214</v>
+        <v>308.5064034346215</v>
       </c>
       <c r="R41" t="n">
-        <v>179.455872623306</v>
+        <v>179.4558726233061</v>
       </c>
       <c r="S41" t="n">
         <v>65.10020412558195</v>
       </c>
       <c r="T41" t="n">
-        <v>12.50580992033943</v>
+        <v>12.50580992033944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2285470687897553</v>
+        <v>0.2285470687897554</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,13 +34201,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.528543279057899</v>
+        <v>1.5285432790579</v>
       </c>
       <c r="H42" t="n">
         <v>14.76251008984866</v>
       </c>
       <c r="I42" t="n">
-        <v>52.62747693247593</v>
+        <v>52.62747693247594</v>
       </c>
       <c r="J42" t="n">
         <v>144.4138191850273</v>
@@ -34216,16 +34216,16 @@
         <v>246.8262188819065</v>
       </c>
       <c r="L42" t="n">
-        <v>331.8883115340408</v>
+        <v>331.8883115340409</v>
       </c>
       <c r="M42" t="n">
-        <v>387.2980053998896</v>
+        <v>387.2980053998897</v>
       </c>
       <c r="N42" t="n">
         <v>397.548631161642</v>
       </c>
       <c r="O42" t="n">
-        <v>363.6793300835696</v>
+        <v>363.6793300835697</v>
       </c>
       <c r="P42" t="n">
         <v>291.8847249281703</v>
@@ -34234,13 +34234,13 @@
         <v>195.1172087443031</v>
       </c>
       <c r="R42" t="n">
-        <v>94.90376604536681</v>
+        <v>94.90376604536682</v>
       </c>
       <c r="S42" t="n">
-        <v>28.39202099478157</v>
+        <v>28.39202099478158</v>
       </c>
       <c r="T42" t="n">
-        <v>6.161102076553548</v>
+        <v>6.161102076553549</v>
       </c>
       <c r="U42" t="n">
         <v>0.1005620578327566</v>
@@ -34289,7 +34289,7 @@
         <v>38.53757863927915</v>
       </c>
       <c r="J43" t="n">
-        <v>90.6005892012315</v>
+        <v>90.60058920123151</v>
       </c>
       <c r="K43" t="n">
         <v>148.8845994588837</v>
@@ -34313,16 +34313,16 @@
         <v>107.3064198447401</v>
       </c>
       <c r="R43" t="n">
-        <v>57.61997096429098</v>
+        <v>57.61997096429099</v>
       </c>
       <c r="S43" t="n">
         <v>22.33268991883255</v>
       </c>
       <c r="T43" t="n">
-        <v>5.475411717188993</v>
+        <v>5.475411717188994</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06989887298539149</v>
+        <v>0.06989887298539151</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.856838359871942</v>
+        <v>2.856838359871943</v>
       </c>
       <c r="H44" t="n">
-        <v>29.25759585303853</v>
+        <v>29.25759585303854</v>
       </c>
       <c r="I44" t="n">
         <v>110.1382608689632</v>
@@ -34371,37 +34371,37 @@
         <v>242.4705847461815</v>
       </c>
       <c r="K44" t="n">
-        <v>363.4005525195608</v>
+        <v>363.4005525195609</v>
       </c>
       <c r="L44" t="n">
-        <v>450.8305194754919</v>
+        <v>450.830519475492</v>
       </c>
       <c r="M44" t="n">
-        <v>501.6358186578645</v>
+        <v>501.6358186578646</v>
       </c>
       <c r="N44" t="n">
-        <v>509.7528106478507</v>
+        <v>509.7528106478508</v>
       </c>
       <c r="O44" t="n">
-        <v>481.3451242068741</v>
+        <v>481.3451242068742</v>
       </c>
       <c r="P44" t="n">
-        <v>410.8169271975354</v>
+        <v>410.8169271975355</v>
       </c>
       <c r="Q44" t="n">
-        <v>308.5064034346214</v>
+        <v>308.5064034346215</v>
       </c>
       <c r="R44" t="n">
-        <v>179.455872623306</v>
+        <v>179.4558726233061</v>
       </c>
       <c r="S44" t="n">
         <v>65.10020412558195</v>
       </c>
       <c r="T44" t="n">
-        <v>12.50580992033943</v>
+        <v>12.50580992033944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2285470687897553</v>
+        <v>0.2285470687897554</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,13 +34438,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.528543279057899</v>
+        <v>1.5285432790579</v>
       </c>
       <c r="H45" t="n">
         <v>14.76251008984866</v>
       </c>
       <c r="I45" t="n">
-        <v>52.62747693247593</v>
+        <v>52.62747693247594</v>
       </c>
       <c r="J45" t="n">
         <v>144.4138191850273</v>
@@ -34453,16 +34453,16 @@
         <v>246.8262188819065</v>
       </c>
       <c r="L45" t="n">
-        <v>331.8883115340408</v>
+        <v>331.8883115340409</v>
       </c>
       <c r="M45" t="n">
-        <v>387.2980053998896</v>
+        <v>387.2980053998897</v>
       </c>
       <c r="N45" t="n">
         <v>397.548631161642</v>
       </c>
       <c r="O45" t="n">
-        <v>363.6793300835696</v>
+        <v>363.6793300835697</v>
       </c>
       <c r="P45" t="n">
         <v>291.8847249281703</v>
@@ -34471,13 +34471,13 @@
         <v>195.1172087443031</v>
       </c>
       <c r="R45" t="n">
-        <v>94.90376604536681</v>
+        <v>94.90376604536682</v>
       </c>
       <c r="S45" t="n">
-        <v>28.39202099478157</v>
+        <v>28.39202099478158</v>
       </c>
       <c r="T45" t="n">
-        <v>6.161102076553548</v>
+        <v>6.161102076553549</v>
       </c>
       <c r="U45" t="n">
         <v>0.1005620578327566</v>
@@ -34526,7 +34526,7 @@
         <v>38.53757863927915</v>
       </c>
       <c r="J46" t="n">
-        <v>90.6005892012315</v>
+        <v>90.60058920123151</v>
       </c>
       <c r="K46" t="n">
         <v>148.8845994588837</v>
@@ -34550,16 +34550,16 @@
         <v>107.3064198447401</v>
       </c>
       <c r="R46" t="n">
-        <v>57.61997096429098</v>
+        <v>57.61997096429099</v>
       </c>
       <c r="S46" t="n">
         <v>22.33268991883255</v>
       </c>
       <c r="T46" t="n">
-        <v>5.475411717188993</v>
+        <v>5.475411717188994</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06989887298539149</v>
+        <v>0.06989887298539151</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>13.81368620719627</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>13.81368620719627</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>13.81368620719627</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>13.25555747155198</v>
+        <v>16.79086487500072</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>27.91910615639276</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>46.59249612745214</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>46.59249612745214</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>46.59249612745214</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35968,25 +35968,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>13.25555747155197</v>
+        <v>20.1085930515969</v>
       </c>
       <c r="M18" t="n">
-        <v>13.81368620719627</v>
+        <v>36.17483449073286</v>
       </c>
       <c r="N18" t="n">
-        <v>13.81368620719627</v>
+        <v>46.59249612745214</v>
       </c>
       <c r="O18" t="n">
-        <v>13.81368620719627</v>
+        <v>28.03427695026311</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>9.80655146665508</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>35.94567093130716</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>7.825036395742629</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>44.70997103139349</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>46.59249612745214</v>
       </c>
       <c r="M19" t="n">
-        <v>13.81368620719627</v>
+        <v>46.59249612745214</v>
       </c>
       <c r="N19" t="n">
-        <v>13.81368620719627</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>13.81368620719627</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>13.25555747155198</v>
+        <v>46.59249612745214</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>46.59249612745214</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36129,19 +36129,19 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>13.81368620719627</v>
+        <v>46.59249612745214</v>
       </c>
       <c r="N20" t="n">
-        <v>13.81368620719627</v>
+        <v>34.49330332442928</v>
       </c>
       <c r="O20" t="n">
-        <v>13.81368620719627</v>
+        <v>10.21666770696422</v>
       </c>
       <c r="P20" t="n">
-        <v>13.25555747155198</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>46.59249612745214</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>13.81368620719627</v>
+        <v>35.94567093130716</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>20.1085930515969</v>
       </c>
       <c r="M21" t="n">
-        <v>13.81368620719627</v>
+        <v>36.17483449073286</v>
       </c>
       <c r="N21" t="n">
-        <v>13.81368620719627</v>
+        <v>46.59249612745214</v>
       </c>
       <c r="O21" t="n">
-        <v>13.25555747155198</v>
+        <v>28.03427695026311</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>9.80655146665508</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>7.825036395742629</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>13.81368620719627</v>
+        <v>44.70997103139349</v>
       </c>
       <c r="L22" t="n">
-        <v>13.81368620719627</v>
+        <v>46.59249612745214</v>
       </c>
       <c r="M22" t="n">
-        <v>13.81368620719627</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>13.25555747155198</v>
+        <v>46.59249612745214</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>46.59249612745214</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>124.7907468038354</v>
+        <v>124.7907468038352</v>
       </c>
       <c r="K23" t="n">
-        <v>220.3421493403235</v>
+        <v>220.3421493403233</v>
       </c>
       <c r="L23" t="n">
-        <v>297.5823497450002</v>
+        <v>297.582349745</v>
       </c>
       <c r="M23" t="n">
-        <v>351.9107670601373</v>
+        <v>351.910767060137</v>
       </c>
       <c r="N23" t="n">
-        <v>360.6343193100666</v>
+        <v>360.6343193100664</v>
       </c>
       <c r="O23" t="n">
-        <v>331.7812867827777</v>
+        <v>331.7812867827774</v>
       </c>
       <c r="P23" t="n">
-        <v>260.5154799566102</v>
+        <v>260.51547995661</v>
       </c>
       <c r="Q23" t="n">
-        <v>164.0077050162292</v>
+        <v>164.0077050162291</v>
       </c>
       <c r="R23" t="n">
-        <v>39.32527304412017</v>
+        <v>39.32527304412008</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>3.734095484268408</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>258.6713769827317</v>
+        <v>61.96936185169385</v>
       </c>
       <c r="K24" t="n">
-        <v>157.2292835485732</v>
+        <v>157.2292835485731</v>
       </c>
       <c r="L24" t="n">
-        <v>241.8279646771226</v>
+        <v>241.8279646771225</v>
       </c>
       <c r="M24" t="n">
-        <v>294.9108833505776</v>
+        <v>294.9108833505775</v>
       </c>
       <c r="N24" t="n">
-        <v>312.1765183074754</v>
+        <v>312.1765183074751</v>
       </c>
       <c r="O24" t="n">
-        <v>270.9917711946807</v>
+        <v>543.2094837470685</v>
       </c>
       <c r="P24" t="n">
-        <v>204.8013601088556</v>
+        <v>204.8013601088555</v>
       </c>
       <c r="Q24" t="n">
-        <v>406.3347349360248</v>
+        <v>263.5393280932827</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2120884687902276</v>
+        <v>71.22589337445065</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>60.52610172907243</v>
+        <v>60.52610172907239</v>
       </c>
       <c r="K25" t="n">
-        <v>231.5462571456937</v>
+        <v>231.5462571456936</v>
       </c>
       <c r="L25" t="n">
-        <v>356.3065229558686</v>
+        <v>356.3065229558684</v>
       </c>
       <c r="M25" t="n">
         <v>389.0510226006426</v>
       </c>
       <c r="N25" t="n">
-        <v>381.1413225354746</v>
+        <v>381.1413225354744</v>
       </c>
       <c r="O25" t="n">
-        <v>345.4795290665566</v>
+        <v>345.4795290665564</v>
       </c>
       <c r="P25" t="n">
         <v>276.0761371708993</v>
@@ -36597,28 +36597,28 @@
         <v>124.7907468038354</v>
       </c>
       <c r="K26" t="n">
-        <v>220.3421493403236</v>
+        <v>220.3421493403235</v>
       </c>
       <c r="L26" t="n">
         <v>297.5823497450003</v>
       </c>
       <c r="M26" t="n">
-        <v>351.9107670601375</v>
+        <v>351.9107670601373</v>
       </c>
       <c r="N26" t="n">
-        <v>360.6343193100668</v>
+        <v>360.6343193100658</v>
       </c>
       <c r="O26" t="n">
         <v>331.7812867827778</v>
       </c>
       <c r="P26" t="n">
-        <v>260.5154799566104</v>
+        <v>260.5154799566103</v>
       </c>
       <c r="Q26" t="n">
-        <v>164.0077050162294</v>
+        <v>164.0077050162293</v>
       </c>
       <c r="R26" t="n">
-        <v>39.32527304411929</v>
+        <v>39.32527304412019</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>3.734095484268423</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>258.6713769827317</v>
@@ -36685,7 +36685,7 @@
         <v>294.9108833505778</v>
       </c>
       <c r="N27" t="n">
-        <v>312.1765183074755</v>
+        <v>312.1765183074754</v>
       </c>
       <c r="O27" t="n">
         <v>270.9917711946808</v>
@@ -36694,10 +36694,10 @@
         <v>204.8013601088557</v>
       </c>
       <c r="Q27" t="n">
-        <v>335.3209300303638</v>
+        <v>410.0688304202928</v>
       </c>
       <c r="R27" t="n">
-        <v>71.22589337445073</v>
+        <v>0.2120884687902418</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.52610172907246</v>
+        <v>60.52610172907244</v>
       </c>
       <c r="K28" t="n">
         <v>231.5462571456937</v>
@@ -36837,25 +36837,25 @@
         <v>220.3421493403235</v>
       </c>
       <c r="L29" t="n">
-        <v>297.5823497450002</v>
+        <v>297.5823497450003</v>
       </c>
       <c r="M29" t="n">
         <v>351.9107670601373</v>
       </c>
       <c r="N29" t="n">
-        <v>360.6343193100666</v>
+        <v>360.6343193100668</v>
       </c>
       <c r="O29" t="n">
-        <v>331.7812867827777</v>
+        <v>331.7812867827778</v>
       </c>
       <c r="P29" t="n">
-        <v>260.5154799566102</v>
+        <v>260.5154799566103</v>
       </c>
       <c r="Q29" t="n">
-        <v>164.0077050162292</v>
+        <v>164.0077050162293</v>
       </c>
       <c r="R29" t="n">
-        <v>39.32527304412021</v>
+        <v>39.32527304412019</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>3.734095484268408</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>61.9693618516939</v>
+        <v>61.96936185169393</v>
       </c>
       <c r="K30" t="n">
         <v>157.2292835485732</v>
       </c>
       <c r="L30" t="n">
-        <v>241.8279646771226</v>
+        <v>241.8279646771227</v>
       </c>
       <c r="M30" t="n">
+        <v>294.9108833505778</v>
+      </c>
+      <c r="N30" t="n">
+        <v>312.1765183074754</v>
+      </c>
+      <c r="O30" t="n">
+        <v>435.2254375194096</v>
+      </c>
+      <c r="P30" t="n">
         <v>543.2094837470687</v>
       </c>
-      <c r="N30" t="n">
-        <v>543.2094837470687</v>
-      </c>
-      <c r="O30" t="n">
-        <v>270.9917711946807</v>
-      </c>
-      <c r="P30" t="n">
-        <v>204.8013601088556</v>
-      </c>
       <c r="Q30" t="n">
-        <v>123.7051842309782</v>
+        <v>104.1290555883891</v>
       </c>
       <c r="R30" t="n">
-        <v>0.2120884687902276</v>
+        <v>0.2120884687902418</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.52610172907243</v>
+        <v>60.52610172907244</v>
       </c>
       <c r="K31" t="n">
         <v>231.5462571456937</v>
@@ -36998,7 +36998,7 @@
         <v>356.3065229558686</v>
       </c>
       <c r="M31" t="n">
-        <v>389.0510226006426</v>
+        <v>389.0510226006427</v>
       </c>
       <c r="N31" t="n">
         <v>381.1413225354746</v>
@@ -37007,10 +37007,10 @@
         <v>345.4795290665566</v>
       </c>
       <c r="P31" t="n">
-        <v>276.0761371708993</v>
+        <v>276.0761371708994</v>
       </c>
       <c r="Q31" t="n">
-        <v>110.7631838548925</v>
+        <v>110.7631838548926</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>124.7907468038354</v>
       </c>
       <c r="K32" t="n">
-        <v>220.3421493403235</v>
+        <v>220.3421493403231</v>
       </c>
       <c r="L32" t="n">
-        <v>297.5823497450002</v>
+        <v>297.5823497450003</v>
       </c>
       <c r="M32" t="n">
         <v>351.9107670601373</v>
       </c>
       <c r="N32" t="n">
-        <v>360.6343193100666</v>
+        <v>360.6343193100668</v>
       </c>
       <c r="O32" t="n">
-        <v>331.7812867827777</v>
+        <v>331.7812867827778</v>
       </c>
       <c r="P32" t="n">
-        <v>260.5154799566102</v>
+        <v>260.5154799566103</v>
       </c>
       <c r="Q32" t="n">
-        <v>164.0077050162292</v>
+        <v>164.0077050162293</v>
       </c>
       <c r="R32" t="n">
-        <v>39.32527304412017</v>
+        <v>39.32527304412019</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>3.734095484268408</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.4551277864943</v>
+        <v>61.96936185169393</v>
       </c>
       <c r="K33" t="n">
         <v>157.2292835485732</v>
       </c>
       <c r="L33" t="n">
-        <v>241.8279646771226</v>
+        <v>241.8279646771227</v>
       </c>
       <c r="M33" t="n">
-        <v>294.9108833505776</v>
+        <v>294.9108833505778</v>
       </c>
       <c r="N33" t="n">
         <v>312.1765183074754</v>
       </c>
       <c r="O33" t="n">
-        <v>270.9917711946807</v>
+        <v>543.2094837470688</v>
       </c>
       <c r="P33" t="n">
-        <v>543.2094837470687</v>
+        <v>364.2116326137493</v>
       </c>
       <c r="Q33" t="n">
         <v>104.1290555883891</v>
       </c>
       <c r="R33" t="n">
-        <v>71.22589337445071</v>
+        <v>71.22589337445072</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.52610172907243</v>
+        <v>60.52610172907244</v>
       </c>
       <c r="K34" t="n">
         <v>231.5462571456937</v>
@@ -37235,19 +37235,19 @@
         <v>356.3065229558686</v>
       </c>
       <c r="M34" t="n">
-        <v>389.0510226006426</v>
+        <v>389.0510226006427</v>
       </c>
       <c r="N34" t="n">
         <v>381.1413225354746</v>
       </c>
       <c r="O34" t="n">
-        <v>345.4795290665564</v>
+        <v>345.4795290665566</v>
       </c>
       <c r="P34" t="n">
-        <v>276.0761371708993</v>
+        <v>276.0761371708994</v>
       </c>
       <c r="Q34" t="n">
-        <v>110.7631838548925</v>
+        <v>110.7631838548926</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>124.7907468038354</v>
+        <v>124.7907468038349</v>
       </c>
       <c r="K35" t="n">
         <v>220.3421493403235</v>
       </c>
       <c r="L35" t="n">
-        <v>297.5823497450002</v>
+        <v>297.5823497450003</v>
       </c>
       <c r="M35" t="n">
         <v>351.9107670601373</v>
       </c>
       <c r="N35" t="n">
-        <v>360.6343193100666</v>
+        <v>360.6343193100668</v>
       </c>
       <c r="O35" t="n">
-        <v>331.7812867827777</v>
+        <v>331.7812867827778</v>
       </c>
       <c r="P35" t="n">
-        <v>260.5154799566102</v>
+        <v>260.5154799566103</v>
       </c>
       <c r="Q35" t="n">
-        <v>164.0077050162292</v>
+        <v>164.0077050162293</v>
       </c>
       <c r="R35" t="n">
-        <v>39.32527304412017</v>
+        <v>39.32527304412019</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>3.734095484268408</v>
+        <v>3.734095484268416</v>
       </c>
       <c r="J36" t="n">
         <v>258.6713769827317</v>
       </c>
       <c r="K36" t="n">
-        <v>157.2292835485732</v>
+        <v>459.4349628962091</v>
       </c>
       <c r="L36" t="n">
-        <v>241.8279646771226</v>
+        <v>241.8279646771227</v>
       </c>
       <c r="M36" t="n">
-        <v>294.9108833505776</v>
+        <v>294.9108833505778</v>
       </c>
       <c r="N36" t="n">
         <v>312.1765183074754</v>
       </c>
       <c r="O36" t="n">
-        <v>270.9917711946807</v>
+        <v>270.9917711946808</v>
       </c>
       <c r="P36" t="n">
-        <v>204.8013601088556</v>
+        <v>204.8013601088557</v>
       </c>
       <c r="Q36" t="n">
-        <v>406.3347349360248</v>
+        <v>104.1290555883891</v>
       </c>
       <c r="R36" t="n">
-        <v>0.2120884687902276</v>
+        <v>0.2120884687902418</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>60.52610172907243</v>
+        <v>60.52610172907244</v>
       </c>
       <c r="K37" t="n">
         <v>231.5462571456937</v>
@@ -37472,7 +37472,7 @@
         <v>356.3065229558686</v>
       </c>
       <c r="M37" t="n">
-        <v>389.0510226006426</v>
+        <v>389.0510226006427</v>
       </c>
       <c r="N37" t="n">
         <v>381.1413225354746</v>
@@ -37481,10 +37481,10 @@
         <v>345.4795290665566</v>
       </c>
       <c r="P37" t="n">
-        <v>276.0761371708993</v>
+        <v>276.0761371708994</v>
       </c>
       <c r="Q37" t="n">
-        <v>110.7631838548927</v>
+        <v>110.7631838548926</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>124.7907468038354</v>
       </c>
       <c r="K38" t="n">
-        <v>220.3421493403235</v>
+        <v>220.3421493403226</v>
       </c>
       <c r="L38" t="n">
-        <v>297.5823497450002</v>
+        <v>297.5823497450003</v>
       </c>
       <c r="M38" t="n">
         <v>351.9107670601373</v>
       </c>
       <c r="N38" t="n">
-        <v>360.6343193100666</v>
+        <v>360.6343193100668</v>
       </c>
       <c r="O38" t="n">
-        <v>331.7812867827777</v>
+        <v>331.7812867827778</v>
       </c>
       <c r="P38" t="n">
-        <v>260.5154799566102</v>
+        <v>260.5154799566103</v>
       </c>
       <c r="Q38" t="n">
-        <v>164.0077050162292</v>
+        <v>164.0077050162293</v>
       </c>
       <c r="R38" t="n">
-        <v>39.32527304412017</v>
+        <v>39.32527304412019</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>3.734095484268408</v>
+        <v>3.734095484268416</v>
       </c>
       <c r="J39" t="n">
-        <v>258.6713769827317</v>
+        <v>233.1564874624426</v>
       </c>
       <c r="K39" t="n">
         <v>157.2292835485732</v>
       </c>
       <c r="L39" t="n">
-        <v>241.8279646771226</v>
+        <v>241.8279646771227</v>
       </c>
       <c r="M39" t="n">
-        <v>294.9108833505776</v>
+        <v>294.9108833505778</v>
       </c>
       <c r="N39" t="n">
         <v>312.1765183074754</v>
       </c>
       <c r="O39" t="n">
-        <v>270.9917711946807</v>
+        <v>270.9917711946808</v>
       </c>
       <c r="P39" t="n">
-        <v>204.8013601088556</v>
+        <v>204.8013601088557</v>
       </c>
       <c r="Q39" t="n">
-        <v>406.3347349360253</v>
+        <v>431.8496244563137</v>
       </c>
       <c r="R39" t="n">
-        <v>0.2120884687902276</v>
+        <v>0.2120884687902418</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>60.52610172907243</v>
+        <v>60.52610172907244</v>
       </c>
       <c r="K40" t="n">
         <v>231.5462571456937</v>
@@ -37709,7 +37709,7 @@
         <v>356.3065229558686</v>
       </c>
       <c r="M40" t="n">
-        <v>389.0510226006426</v>
+        <v>389.0510226006427</v>
       </c>
       <c r="N40" t="n">
         <v>381.1413225354746</v>
@@ -37718,10 +37718,10 @@
         <v>345.4795290665566</v>
       </c>
       <c r="P40" t="n">
-        <v>276.0761371708993</v>
+        <v>276.0761371708994</v>
       </c>
       <c r="Q40" t="n">
-        <v>110.7631838548925</v>
+        <v>110.7631838548926</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>220.3421493403235</v>
       </c>
       <c r="L41" t="n">
-        <v>297.5823497450002</v>
+        <v>297.5823497450003</v>
       </c>
       <c r="M41" t="n">
         <v>351.9107670601373</v>
       </c>
       <c r="N41" t="n">
-        <v>360.6343193100666</v>
+        <v>360.6343193100668</v>
       </c>
       <c r="O41" t="n">
-        <v>331.7812867827777</v>
+        <v>331.7812867827778</v>
       </c>
       <c r="P41" t="n">
-        <v>260.5154799566102</v>
+        <v>260.5154799566103</v>
       </c>
       <c r="Q41" t="n">
-        <v>164.0077050162292</v>
+        <v>164.007705016229</v>
       </c>
       <c r="R41" t="n">
-        <v>39.32527304412017</v>
+        <v>39.32527304412019</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>3.734095484268416</v>
       </c>
       <c r="J42" t="n">
-        <v>258.6713769827317</v>
+        <v>233.1564874624431</v>
       </c>
       <c r="K42" t="n">
         <v>157.2292835485732</v>
       </c>
       <c r="L42" t="n">
-        <v>299.4691391125359</v>
+        <v>241.8279646771227</v>
       </c>
       <c r="M42" t="n">
-        <v>543.2094837470687</v>
+        <v>294.9108833505778</v>
       </c>
       <c r="N42" t="n">
         <v>312.1765183074754</v>
       </c>
       <c r="O42" t="n">
-        <v>270.9917711946807</v>
+        <v>270.9917711946808</v>
       </c>
       <c r="P42" t="n">
-        <v>204.8013601088556</v>
+        <v>204.8013601088557</v>
       </c>
       <c r="Q42" t="n">
-        <v>104.1290555883891</v>
+        <v>431.8496244563137</v>
       </c>
       <c r="R42" t="n">
-        <v>0.2120884687902276</v>
+        <v>0.2120884687902418</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>60.52610172907243</v>
+        <v>60.52610172907244</v>
       </c>
       <c r="K43" t="n">
         <v>231.5462571456937</v>
@@ -37946,7 +37946,7 @@
         <v>356.3065229558686</v>
       </c>
       <c r="M43" t="n">
-        <v>389.0510226006425</v>
+        <v>389.0510226006427</v>
       </c>
       <c r="N43" t="n">
         <v>381.1413225354746</v>
@@ -37955,10 +37955,10 @@
         <v>345.4795290665566</v>
       </c>
       <c r="P43" t="n">
-        <v>276.0761371708993</v>
+        <v>276.0761371708994</v>
       </c>
       <c r="Q43" t="n">
-        <v>110.7631838548925</v>
+        <v>110.7631838548926</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>220.3421493403235</v>
       </c>
       <c r="L44" t="n">
-        <v>297.5823497450002</v>
+        <v>297.5823497450003</v>
       </c>
       <c r="M44" t="n">
         <v>351.9107670601373</v>
       </c>
       <c r="N44" t="n">
-        <v>360.6343193100666</v>
+        <v>360.6343193100668</v>
       </c>
       <c r="O44" t="n">
-        <v>331.7812867827777</v>
+        <v>331.7812867827778</v>
       </c>
       <c r="P44" t="n">
-        <v>260.5154799566102</v>
+        <v>260.5154799566103</v>
       </c>
       <c r="Q44" t="n">
-        <v>164.0077050162292</v>
+        <v>164.0077050162293</v>
       </c>
       <c r="R44" t="n">
-        <v>39.32527304412017</v>
+        <v>39.32527304412019</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>3.734095484268408</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>258.6713769827317</v>
+        <v>61.96936185169393</v>
       </c>
       <c r="K45" t="n">
-        <v>388.4211579905486</v>
+        <v>332.1505046435907</v>
       </c>
       <c r="L45" t="n">
-        <v>241.8279646771226</v>
+        <v>241.8279646771227</v>
       </c>
       <c r="M45" t="n">
-        <v>294.9108833505776</v>
+        <v>294.9108833505778</v>
       </c>
       <c r="N45" t="n">
         <v>312.1765183074754</v>
       </c>
       <c r="O45" t="n">
-        <v>270.9917711946807</v>
+        <v>270.9917711946808</v>
       </c>
       <c r="P45" t="n">
-        <v>204.8013601088556</v>
+        <v>204.8013601088557</v>
       </c>
       <c r="Q45" t="n">
-        <v>104.1290555883891</v>
+        <v>431.8496244563137</v>
       </c>
       <c r="R45" t="n">
-        <v>71.22589337445071</v>
+        <v>0.2120884687902418</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>60.52610172907243</v>
+        <v>60.52610172907244</v>
       </c>
       <c r="K46" t="n">
         <v>231.5462571456937</v>
@@ -38192,10 +38192,10 @@
         <v>345.4795290665566</v>
       </c>
       <c r="P46" t="n">
-        <v>276.0761371708993</v>
+        <v>276.0761371708994</v>
       </c>
       <c r="Q46" t="n">
-        <v>110.7631838548925</v>
+        <v>110.7631838548926</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
